--- a/SummonPool.xlsx
+++ b/SummonPool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah Rudin\Desktop\gacha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38396EEC-1D7E-4ABA-9350-6A932232CA32}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B064212E-B16F-4758-B90A-0A4604773E98}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bf" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="541">
   <si>
     <t>Naruto Uzumaki</t>
   </si>
@@ -1652,6 +1652,9 @@
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/naruto-shippuden-ultimate-ninja-blazing/images/3/31/Card-0453.png/revision/latest?cb=20170928005716</t>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/naruto-shippuden-ultimate-ninja-blazing/images/8/86/Card-0118.png/revision/latest?cb=20161104214356</t>
   </si>
 </sst>
 </file>
@@ -1939,8 +1942,8 @@
   </sheetPr>
   <dimension ref="A1:Q135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2603,7 +2606,7 @@
         <v>3</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>119</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -5143,155 +5146,154 @@
     <hyperlink ref="Q13" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
     <hyperlink ref="E14" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
     <hyperlink ref="K14" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="Q14" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="E15" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="K15" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="Q15" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="E16" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="K16" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="E17" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="K17" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="E18" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="K18" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="E19" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="K19" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="E20" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="K20" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="E21" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="K21" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="E22" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="K22" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="E23" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="K23" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="E24" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="K24" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="E25" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="K25" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="E26" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="K26" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="E27" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="K27" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="E28" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="K28" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="E29" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="K29" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="E30" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="K30" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="E31" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="K31" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="E32" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="K32" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="E33" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="K33" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="E34" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="K34" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="E35" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="K35" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="E36" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="K36" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="E37" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="K37" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="E38" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="K38" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="E39" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="K39" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="E40" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="K40" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="E41" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="K41" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="E42" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="K42" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="E43" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="K43" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="E44" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="K44" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="E45" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="K45" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="E46" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="K46" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="E47" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="K47" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="E48" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="K48" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="E49" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="E50" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="E51" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="E52" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="E53" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="E54" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="E55" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="E56" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="E57" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="E58" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="E59" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="E60" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="E61" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="E62" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="E63" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="E64" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="E65" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="E66" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="E67" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="E68" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="E69" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="E70" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="E71" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="E72" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="E73" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="E74" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="E75" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="E76" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="E77" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="E78" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="E79" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="E80" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="E81" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="E82" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="E83" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="E84" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="E85" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="E86" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="E87" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="E88" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="E89" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="E90" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="E91" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="E92" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="E93" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="E94" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="E95" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="E96" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="E97" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="E98" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="E99" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="E100" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="E101" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="E102" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="E103" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="E104" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="E105" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="E106" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="E107" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="E108" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="E109" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="E110" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="E111" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="E112" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="E113" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="E114" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="E115" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="E116" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="E117" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="E118" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="E119" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="E120" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="E121" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="E122" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="E123" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="E124" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="E125" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="E126" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="E127" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="E15" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="K15" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="Q15" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="E16" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="K16" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="E17" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="K17" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="E18" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="K18" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="E19" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="K19" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E20" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="K20" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="E21" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="K21" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E22" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="K22" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E23" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="K23" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E24" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="K24" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="E25" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="K25" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E26" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="K26" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="E27" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="K27" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="E28" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="K28" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E29" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="K29" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="E30" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="K30" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="E31" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="K31" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="E32" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="K32" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E33" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="K33" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E34" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="K34" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E35" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="K35" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="E36" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="K36" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="E37" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="K37" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E38" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="K38" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="E39" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="K39" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="E40" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="K40" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E41" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="K41" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="E42" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="K42" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="E43" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="K43" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="E44" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="K44" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="E45" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="K45" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="E46" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="K46" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="E47" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="K47" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="E48" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="K48" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="E49" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="E50" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="E51" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="E52" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="E53" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="E54" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="E55" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="E56" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="E57" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="E58" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="E59" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="E60" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="E61" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="E62" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="E63" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="E64" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="E65" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="E66" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="E67" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="E68" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="E69" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="E70" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="E71" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="E72" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="E73" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="E74" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="E75" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="E76" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="E77" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="E78" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="E79" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="E80" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="E81" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="E82" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="E83" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="E84" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="E85" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="E86" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="E87" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="E88" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="E89" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="E90" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="E91" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="E92" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="E93" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="E94" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="E95" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="E96" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="E97" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="E98" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="E99" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="E100" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="E101" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="E102" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="E103" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="E104" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="E105" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="E106" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="E107" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="E108" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="E109" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="E110" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="E111" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="E112" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="E113" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="E114" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="E115" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="E116" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="E117" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="E118" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="E119" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="E120" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="E121" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="E122" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="E123" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="E124" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="E125" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="E126" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="E127" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5304,8 +5306,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5968,7 +5970,7 @@
         <v>3</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>119</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -33988,112 +33990,111 @@
     <hyperlink ref="Q13" r:id="rId39" xr:uid="{F5DE835D-1CBC-47DE-A166-1D1AC7CD0831}"/>
     <hyperlink ref="E14" r:id="rId40" xr:uid="{944F5011-F050-4BA4-83B2-C2B4B3B40F64}"/>
     <hyperlink ref="K14" r:id="rId41" xr:uid="{EDC4A323-FBCD-41D4-8CBF-F390F70F131F}"/>
-    <hyperlink ref="Q14" r:id="rId42" xr:uid="{D0E49E9B-6E41-40B9-9AB3-4ACCE275DAA2}"/>
-    <hyperlink ref="E15" r:id="rId43" xr:uid="{080AC0F0-3596-4DD8-9D7E-ED8AE00DCE2C}"/>
-    <hyperlink ref="K15" r:id="rId44" xr:uid="{143636FE-9D5E-4A2C-B18A-0A4756A331E4}"/>
-    <hyperlink ref="Q15" r:id="rId45" xr:uid="{47C1BD77-B0D6-4A41-B752-249C99613204}"/>
-    <hyperlink ref="E16" r:id="rId46" xr:uid="{35BCFFE6-FEC2-46F5-8E10-9773048B2791}"/>
-    <hyperlink ref="K16" r:id="rId47" xr:uid="{504E2F23-DB4D-4B14-BDC7-239B9C61ACCA}"/>
-    <hyperlink ref="E17" r:id="rId48" xr:uid="{B8031E1F-92F3-46C9-A6C1-DFDB8E21AB0A}"/>
-    <hyperlink ref="K17" r:id="rId49" xr:uid="{9248B366-70F1-44D8-9B6E-8D997DDAB784}"/>
-    <hyperlink ref="E18" r:id="rId50" xr:uid="{D15A778F-9325-45EC-A96D-7D0001FB33E2}"/>
-    <hyperlink ref="K18" r:id="rId51" xr:uid="{E2634C8E-EBDC-43E6-927B-52467A5FC537}"/>
-    <hyperlink ref="E19" r:id="rId52" xr:uid="{038315D3-86AF-46AF-B072-6EA6B898F537}"/>
-    <hyperlink ref="K19" r:id="rId53" xr:uid="{6D91C8C0-9EB3-4D77-AE5F-37F50535C067}"/>
-    <hyperlink ref="E20" r:id="rId54" xr:uid="{28A6AFB8-A4A8-45B5-9391-6ECA1A176934}"/>
-    <hyperlink ref="K20" r:id="rId55" xr:uid="{773CF6D1-08EF-4832-A59B-1E6D7DAF94AF}"/>
-    <hyperlink ref="E21" r:id="rId56" xr:uid="{D88DBFDE-B951-47D8-B169-2A94F6296484}"/>
-    <hyperlink ref="K21" r:id="rId57" xr:uid="{B2A2077C-E885-4D35-B429-295BA21D1C0E}"/>
-    <hyperlink ref="E22" r:id="rId58" xr:uid="{94996038-C18D-4F8E-BCF5-2B769FDD421B}"/>
-    <hyperlink ref="K22" r:id="rId59" xr:uid="{E45E9FE1-1C11-47BB-ACDC-43B355A32ACD}"/>
-    <hyperlink ref="E23" r:id="rId60" xr:uid="{D02A836D-0871-4BF0-9293-88FA3FD5F145}"/>
-    <hyperlink ref="K23" r:id="rId61" xr:uid="{E4C2144F-2AF0-40F9-A619-D13424B1B5F3}"/>
-    <hyperlink ref="E24" r:id="rId62" xr:uid="{1AF0A0E9-1700-4B99-9DEC-122B85FF3D59}"/>
-    <hyperlink ref="K24" r:id="rId63" xr:uid="{54824CF2-9707-4D63-9F9A-BFBE4BF85656}"/>
-    <hyperlink ref="E25" r:id="rId64" xr:uid="{5D219D8F-8FB7-4E97-A9BF-66CBECC345A2}"/>
-    <hyperlink ref="K25" r:id="rId65" xr:uid="{18737E59-4D0F-469F-AB1D-DB711F18A26D}"/>
-    <hyperlink ref="E26" r:id="rId66" xr:uid="{DC774143-DB9C-4DD1-9D11-DD29252CBCB2}"/>
-    <hyperlink ref="K26" r:id="rId67" xr:uid="{9504FA09-8AE0-48C8-B396-DEA674F76FC3}"/>
-    <hyperlink ref="E27" r:id="rId68" xr:uid="{B11D3523-5251-42B8-8B2F-152BEE3CC2D3}"/>
-    <hyperlink ref="K27" r:id="rId69" xr:uid="{86F9AE99-713B-4B2F-8888-0281F49FFC60}"/>
-    <hyperlink ref="E28" r:id="rId70" xr:uid="{B9762D17-BCDF-4B9E-9F5D-C90F67E875F2}"/>
-    <hyperlink ref="K28" r:id="rId71" xr:uid="{528188C8-6CB7-4DC5-9964-E7CCA459A3D2}"/>
-    <hyperlink ref="E29" r:id="rId72" xr:uid="{6D540895-9A55-4F7E-92A1-75BF84E7260A}"/>
-    <hyperlink ref="K29" r:id="rId73" xr:uid="{E52A7A99-1BFB-43D9-A6FD-14E02A47A29D}"/>
-    <hyperlink ref="E30" r:id="rId74" xr:uid="{0F4F0C86-23D2-4231-9EE7-FDD3D52FF2BB}"/>
-    <hyperlink ref="K30" r:id="rId75" xr:uid="{5C58665D-D555-4F3B-B4F4-02C7109A6099}"/>
-    <hyperlink ref="E31" r:id="rId76" xr:uid="{7CC31FAC-19B0-4228-A7D6-2CE705931948}"/>
-    <hyperlink ref="K31" r:id="rId77" xr:uid="{911D27A2-0987-4CBE-B7D0-CD042D68BFC9}"/>
-    <hyperlink ref="E32" r:id="rId78" xr:uid="{E10A2930-1716-41A7-8BB8-45A8DB0D48CE}"/>
-    <hyperlink ref="K32" r:id="rId79" xr:uid="{85CD346F-5B9D-472C-97B7-CA26164823B3}"/>
-    <hyperlink ref="E33" r:id="rId80" xr:uid="{464B6B79-CE0B-43B0-A680-D609D7C87755}"/>
-    <hyperlink ref="K33" r:id="rId81" xr:uid="{C1486D91-1081-4F9D-A4EB-53EA86E38074}"/>
-    <hyperlink ref="E34" r:id="rId82" xr:uid="{68C15DFE-836C-4527-8F11-C5B2453193E6}"/>
-    <hyperlink ref="K34" r:id="rId83" xr:uid="{A2FA6C84-6CDE-4375-89ED-AB2517C891A6}"/>
-    <hyperlink ref="E35" r:id="rId84" xr:uid="{4F0CD705-DF9D-4FF7-9272-A5234DC37FB9}"/>
-    <hyperlink ref="K35" r:id="rId85" xr:uid="{BEA65775-C2D9-4B33-B4C2-EEDC6B55F220}"/>
-    <hyperlink ref="E36" r:id="rId86" xr:uid="{00DF1241-74BB-4FF1-BB64-D57C2FA79F74}"/>
-    <hyperlink ref="K36" r:id="rId87" xr:uid="{6BCBDABC-184A-492B-8A3F-0E02583C0A57}"/>
-    <hyperlink ref="E37" r:id="rId88" xr:uid="{08AE6B34-E70D-4781-AA57-73CA0D483066}"/>
-    <hyperlink ref="K37" r:id="rId89" xr:uid="{9112A6F3-1056-4FCD-A428-B1CAF12460D2}"/>
-    <hyperlink ref="E38" r:id="rId90" xr:uid="{1274AAA5-3D49-41F0-8CB2-3658DE88BF1F}"/>
-    <hyperlink ref="K38" r:id="rId91" xr:uid="{5C7901B9-2E81-454D-8F9C-DF7AFB4E4D43}"/>
-    <hyperlink ref="E39" r:id="rId92" xr:uid="{2DB76102-32D4-4C28-8FA2-29B990F1D000}"/>
-    <hyperlink ref="K39" r:id="rId93" xr:uid="{C3B2C437-C302-460E-B7E2-B94A2EAEE3A4}"/>
-    <hyperlink ref="E40" r:id="rId94" xr:uid="{1BAC2C5B-9251-4ADD-8D3F-4D3A8B86AA9E}"/>
-    <hyperlink ref="K40" r:id="rId95" xr:uid="{31B04BF3-BD84-4444-95C2-43C10DEA2A92}"/>
-    <hyperlink ref="E41" r:id="rId96" xr:uid="{8447EA6B-0840-4566-B80B-E3B963C3DB75}"/>
-    <hyperlink ref="K41" r:id="rId97" xr:uid="{51AEECB0-B824-40CA-828E-08D76DA9690D}"/>
-    <hyperlink ref="E42" r:id="rId98" xr:uid="{B68A19C6-67F4-47B3-A28D-8AE624182873}"/>
-    <hyperlink ref="K42" r:id="rId99" xr:uid="{8824DCE3-4349-4F67-AEF8-7C882999F905}"/>
-    <hyperlink ref="E43" r:id="rId100" xr:uid="{EE7D6F0A-06B4-4CB7-95B7-1EB61C33837A}"/>
-    <hyperlink ref="K43" r:id="rId101" xr:uid="{5B150721-4DBC-4336-BB99-7215182DBE7B}"/>
-    <hyperlink ref="E44" r:id="rId102" xr:uid="{3790AF7D-23E7-4592-AF21-2304D50BF870}"/>
-    <hyperlink ref="K44" r:id="rId103" xr:uid="{E747382F-4F3B-4BF2-81CE-063C7F2ED9F7}"/>
-    <hyperlink ref="E45" r:id="rId104" xr:uid="{27257EC4-A0F3-460E-900F-5C6399A44ED4}"/>
-    <hyperlink ref="K45" r:id="rId105" xr:uid="{E368FCE9-DC03-411F-B9CA-612E0E2D10CE}"/>
-    <hyperlink ref="E46" r:id="rId106" xr:uid="{874D19A0-B19E-40AD-BBC2-695CD1798FB6}"/>
-    <hyperlink ref="K46" r:id="rId107" xr:uid="{C88B914F-3794-411F-BCDF-83492AAFE4AC}"/>
-    <hyperlink ref="E47" r:id="rId108" xr:uid="{74602003-0B2C-4E02-8C19-D73E8A9F3E1B}"/>
-    <hyperlink ref="K47" r:id="rId109" xr:uid="{D7226882-EA48-4FCD-95FE-8E41150A23B9}"/>
-    <hyperlink ref="E48" r:id="rId110" xr:uid="{98E885E6-748D-4DED-96A3-27094FC37C88}"/>
-    <hyperlink ref="K48" r:id="rId111" xr:uid="{8E21CD28-31FA-4D96-8B17-EFC2D43B62E0}"/>
-    <hyperlink ref="E49" r:id="rId112" xr:uid="{8B948CB9-E2E6-4BEB-A05D-880006764E33}"/>
-    <hyperlink ref="E50" r:id="rId113" xr:uid="{882E7090-14F9-44E2-88DC-8B7E8D1BAB58}"/>
-    <hyperlink ref="E51" r:id="rId114" xr:uid="{48B2E8DE-1692-467F-9122-A1BB87B681E6}"/>
-    <hyperlink ref="E52" r:id="rId115" xr:uid="{D27CBA5F-843F-490E-A93D-1A92B7A47F87}"/>
-    <hyperlink ref="E53" r:id="rId116" xr:uid="{F090AF27-5F1C-4EBB-8A77-F649BA6D7AB1}"/>
-    <hyperlink ref="E54" r:id="rId117" xr:uid="{C61E5356-6D40-4516-8B96-E7C007D83063}"/>
-    <hyperlink ref="E55" r:id="rId118" xr:uid="{BB9353AC-E69A-4792-9915-E6E03D992EDB}"/>
-    <hyperlink ref="E56" r:id="rId119" xr:uid="{C175D3DC-5203-43B9-BBE5-4B9A385DF07E}"/>
-    <hyperlink ref="E57" r:id="rId120" xr:uid="{40A0AEF9-0896-4F11-A021-056C60A1AA0C}"/>
-    <hyperlink ref="E58" r:id="rId121" xr:uid="{8FBD5901-37A1-4D40-9F2D-45C16EB6788B}"/>
-    <hyperlink ref="E59" r:id="rId122" xr:uid="{AF9B1D15-6B5D-45F1-BB16-109BC339117D}"/>
-    <hyperlink ref="E60" r:id="rId123" xr:uid="{1E4C48D8-952D-4C01-AB5F-A436F6E5E40B}"/>
-    <hyperlink ref="E61" r:id="rId124" xr:uid="{AB6293CF-43D3-48CA-8922-3F97493EB311}"/>
-    <hyperlink ref="E62" r:id="rId125" xr:uid="{9865463C-F257-4B2D-ABC1-D79CA50A8FF3}"/>
-    <hyperlink ref="E63" r:id="rId126" xr:uid="{8088BE7E-5364-4DFD-B085-82134C61A581}"/>
-    <hyperlink ref="E64" r:id="rId127" xr:uid="{DB18512F-4922-4F82-B327-6C800A80A118}"/>
-    <hyperlink ref="E65" r:id="rId128" xr:uid="{CC564FD1-C186-4243-BFB8-9D0803453221}"/>
-    <hyperlink ref="E66" r:id="rId129" xr:uid="{DEAC8DE7-22E2-481D-A92D-B5724D3FB0C1}"/>
-    <hyperlink ref="E67" r:id="rId130" xr:uid="{5AEFAD84-C3E5-46DB-BD6F-A24127DF6805}"/>
-    <hyperlink ref="E68" r:id="rId131" xr:uid="{D0B8953C-1063-4965-9A72-D2BE1B9F0236}"/>
-    <hyperlink ref="E69" r:id="rId132" xr:uid="{70C38A0A-6C8D-4AB9-9E5B-9FD050E9F180}"/>
-    <hyperlink ref="E70" r:id="rId133" xr:uid="{E57313D2-106F-4635-8CD9-0ED6630AA20F}"/>
-    <hyperlink ref="E71" r:id="rId134" xr:uid="{BD1B2F1E-48F9-4E4D-A41D-5D308065DBA6}"/>
-    <hyperlink ref="E72" r:id="rId135" xr:uid="{4C560E5E-9B6A-4DD1-A22F-091C01C1C88E}"/>
-    <hyperlink ref="E115" r:id="rId136" xr:uid="{F73ACDC5-E716-45FB-8624-8016186266D5}"/>
-    <hyperlink ref="E116" r:id="rId137" xr:uid="{0B0B71F9-00E2-4325-8B98-0B5129AA73F4}"/>
-    <hyperlink ref="E117" r:id="rId138" xr:uid="{8E9A418C-640E-433B-A782-7079B6851892}"/>
-    <hyperlink ref="E119" r:id="rId139" xr:uid="{26F75B8A-A1FB-4AC4-A703-E1A06D66EECC}"/>
-    <hyperlink ref="E118" r:id="rId140" xr:uid="{3654D59C-62FA-4EC3-9E8B-7793B29FD18F}"/>
-    <hyperlink ref="E114" r:id="rId141" xr:uid="{79ACAE1B-6184-4B77-9D70-9287D5E5B5E1}"/>
-    <hyperlink ref="E103" r:id="rId142" xr:uid="{E963C6D7-4BDE-4B11-AD1A-CDD137028642}"/>
-    <hyperlink ref="E101" r:id="rId143" xr:uid="{886C16C8-5C36-4EF1-BA40-399368DB7897}"/>
-    <hyperlink ref="E98" r:id="rId144" xr:uid="{C0E2D530-B23D-48A2-935B-1E4411F69205}"/>
-    <hyperlink ref="E93" r:id="rId145" xr:uid="{92A2F32E-E51E-46FE-A2BC-3446D95EDEEB}"/>
-    <hyperlink ref="E92" r:id="rId146" xr:uid="{37D48DE8-0926-4E3D-998C-2D17FF188B7B}"/>
-    <hyperlink ref="E74" r:id="rId147" xr:uid="{455F0796-2CC1-4A70-8821-18995DE97289}"/>
+    <hyperlink ref="E15" r:id="rId42" xr:uid="{080AC0F0-3596-4DD8-9D7E-ED8AE00DCE2C}"/>
+    <hyperlink ref="K15" r:id="rId43" xr:uid="{143636FE-9D5E-4A2C-B18A-0A4756A331E4}"/>
+    <hyperlink ref="Q15" r:id="rId44" xr:uid="{47C1BD77-B0D6-4A41-B752-249C99613204}"/>
+    <hyperlink ref="E16" r:id="rId45" xr:uid="{35BCFFE6-FEC2-46F5-8E10-9773048B2791}"/>
+    <hyperlink ref="K16" r:id="rId46" xr:uid="{504E2F23-DB4D-4B14-BDC7-239B9C61ACCA}"/>
+    <hyperlink ref="E17" r:id="rId47" xr:uid="{B8031E1F-92F3-46C9-A6C1-DFDB8E21AB0A}"/>
+    <hyperlink ref="K17" r:id="rId48" xr:uid="{9248B366-70F1-44D8-9B6E-8D997DDAB784}"/>
+    <hyperlink ref="E18" r:id="rId49" xr:uid="{D15A778F-9325-45EC-A96D-7D0001FB33E2}"/>
+    <hyperlink ref="K18" r:id="rId50" xr:uid="{E2634C8E-EBDC-43E6-927B-52467A5FC537}"/>
+    <hyperlink ref="E19" r:id="rId51" xr:uid="{038315D3-86AF-46AF-B072-6EA6B898F537}"/>
+    <hyperlink ref="K19" r:id="rId52" xr:uid="{6D91C8C0-9EB3-4D77-AE5F-37F50535C067}"/>
+    <hyperlink ref="E20" r:id="rId53" xr:uid="{28A6AFB8-A4A8-45B5-9391-6ECA1A176934}"/>
+    <hyperlink ref="K20" r:id="rId54" xr:uid="{773CF6D1-08EF-4832-A59B-1E6D7DAF94AF}"/>
+    <hyperlink ref="E21" r:id="rId55" xr:uid="{D88DBFDE-B951-47D8-B169-2A94F6296484}"/>
+    <hyperlink ref="K21" r:id="rId56" xr:uid="{B2A2077C-E885-4D35-B429-295BA21D1C0E}"/>
+    <hyperlink ref="E22" r:id="rId57" xr:uid="{94996038-C18D-4F8E-BCF5-2B769FDD421B}"/>
+    <hyperlink ref="K22" r:id="rId58" xr:uid="{E45E9FE1-1C11-47BB-ACDC-43B355A32ACD}"/>
+    <hyperlink ref="E23" r:id="rId59" xr:uid="{D02A836D-0871-4BF0-9293-88FA3FD5F145}"/>
+    <hyperlink ref="K23" r:id="rId60" xr:uid="{E4C2144F-2AF0-40F9-A619-D13424B1B5F3}"/>
+    <hyperlink ref="E24" r:id="rId61" xr:uid="{1AF0A0E9-1700-4B99-9DEC-122B85FF3D59}"/>
+    <hyperlink ref="K24" r:id="rId62" xr:uid="{54824CF2-9707-4D63-9F9A-BFBE4BF85656}"/>
+    <hyperlink ref="E25" r:id="rId63" xr:uid="{5D219D8F-8FB7-4E97-A9BF-66CBECC345A2}"/>
+    <hyperlink ref="K25" r:id="rId64" xr:uid="{18737E59-4D0F-469F-AB1D-DB711F18A26D}"/>
+    <hyperlink ref="E26" r:id="rId65" xr:uid="{DC774143-DB9C-4DD1-9D11-DD29252CBCB2}"/>
+    <hyperlink ref="K26" r:id="rId66" xr:uid="{9504FA09-8AE0-48C8-B396-DEA674F76FC3}"/>
+    <hyperlink ref="E27" r:id="rId67" xr:uid="{B11D3523-5251-42B8-8B2F-152BEE3CC2D3}"/>
+    <hyperlink ref="K27" r:id="rId68" xr:uid="{86F9AE99-713B-4B2F-8888-0281F49FFC60}"/>
+    <hyperlink ref="E28" r:id="rId69" xr:uid="{B9762D17-BCDF-4B9E-9F5D-C90F67E875F2}"/>
+    <hyperlink ref="K28" r:id="rId70" xr:uid="{528188C8-6CB7-4DC5-9964-E7CCA459A3D2}"/>
+    <hyperlink ref="E29" r:id="rId71" xr:uid="{6D540895-9A55-4F7E-92A1-75BF84E7260A}"/>
+    <hyperlink ref="K29" r:id="rId72" xr:uid="{E52A7A99-1BFB-43D9-A6FD-14E02A47A29D}"/>
+    <hyperlink ref="E30" r:id="rId73" xr:uid="{0F4F0C86-23D2-4231-9EE7-FDD3D52FF2BB}"/>
+    <hyperlink ref="K30" r:id="rId74" xr:uid="{5C58665D-D555-4F3B-B4F4-02C7109A6099}"/>
+    <hyperlink ref="E31" r:id="rId75" xr:uid="{7CC31FAC-19B0-4228-A7D6-2CE705931948}"/>
+    <hyperlink ref="K31" r:id="rId76" xr:uid="{911D27A2-0987-4CBE-B7D0-CD042D68BFC9}"/>
+    <hyperlink ref="E32" r:id="rId77" xr:uid="{E10A2930-1716-41A7-8BB8-45A8DB0D48CE}"/>
+    <hyperlink ref="K32" r:id="rId78" xr:uid="{85CD346F-5B9D-472C-97B7-CA26164823B3}"/>
+    <hyperlink ref="E33" r:id="rId79" xr:uid="{464B6B79-CE0B-43B0-A680-D609D7C87755}"/>
+    <hyperlink ref="K33" r:id="rId80" xr:uid="{C1486D91-1081-4F9D-A4EB-53EA86E38074}"/>
+    <hyperlink ref="E34" r:id="rId81" xr:uid="{68C15DFE-836C-4527-8F11-C5B2453193E6}"/>
+    <hyperlink ref="K34" r:id="rId82" xr:uid="{A2FA6C84-6CDE-4375-89ED-AB2517C891A6}"/>
+    <hyperlink ref="E35" r:id="rId83" xr:uid="{4F0CD705-DF9D-4FF7-9272-A5234DC37FB9}"/>
+    <hyperlink ref="K35" r:id="rId84" xr:uid="{BEA65775-C2D9-4B33-B4C2-EEDC6B55F220}"/>
+    <hyperlink ref="E36" r:id="rId85" xr:uid="{00DF1241-74BB-4FF1-BB64-D57C2FA79F74}"/>
+    <hyperlink ref="K36" r:id="rId86" xr:uid="{6BCBDABC-184A-492B-8A3F-0E02583C0A57}"/>
+    <hyperlink ref="E37" r:id="rId87" xr:uid="{08AE6B34-E70D-4781-AA57-73CA0D483066}"/>
+    <hyperlink ref="K37" r:id="rId88" xr:uid="{9112A6F3-1056-4FCD-A428-B1CAF12460D2}"/>
+    <hyperlink ref="E38" r:id="rId89" xr:uid="{1274AAA5-3D49-41F0-8CB2-3658DE88BF1F}"/>
+    <hyperlink ref="K38" r:id="rId90" xr:uid="{5C7901B9-2E81-454D-8F9C-DF7AFB4E4D43}"/>
+    <hyperlink ref="E39" r:id="rId91" xr:uid="{2DB76102-32D4-4C28-8FA2-29B990F1D000}"/>
+    <hyperlink ref="K39" r:id="rId92" xr:uid="{C3B2C437-C302-460E-B7E2-B94A2EAEE3A4}"/>
+    <hyperlink ref="E40" r:id="rId93" xr:uid="{1BAC2C5B-9251-4ADD-8D3F-4D3A8B86AA9E}"/>
+    <hyperlink ref="K40" r:id="rId94" xr:uid="{31B04BF3-BD84-4444-95C2-43C10DEA2A92}"/>
+    <hyperlink ref="E41" r:id="rId95" xr:uid="{8447EA6B-0840-4566-B80B-E3B963C3DB75}"/>
+    <hyperlink ref="K41" r:id="rId96" xr:uid="{51AEECB0-B824-40CA-828E-08D76DA9690D}"/>
+    <hyperlink ref="E42" r:id="rId97" xr:uid="{B68A19C6-67F4-47B3-A28D-8AE624182873}"/>
+    <hyperlink ref="K42" r:id="rId98" xr:uid="{8824DCE3-4349-4F67-AEF8-7C882999F905}"/>
+    <hyperlink ref="E43" r:id="rId99" xr:uid="{EE7D6F0A-06B4-4CB7-95B7-1EB61C33837A}"/>
+    <hyperlink ref="K43" r:id="rId100" xr:uid="{5B150721-4DBC-4336-BB99-7215182DBE7B}"/>
+    <hyperlink ref="E44" r:id="rId101" xr:uid="{3790AF7D-23E7-4592-AF21-2304D50BF870}"/>
+    <hyperlink ref="K44" r:id="rId102" xr:uid="{E747382F-4F3B-4BF2-81CE-063C7F2ED9F7}"/>
+    <hyperlink ref="E45" r:id="rId103" xr:uid="{27257EC4-A0F3-460E-900F-5C6399A44ED4}"/>
+    <hyperlink ref="K45" r:id="rId104" xr:uid="{E368FCE9-DC03-411F-B9CA-612E0E2D10CE}"/>
+    <hyperlink ref="E46" r:id="rId105" xr:uid="{874D19A0-B19E-40AD-BBC2-695CD1798FB6}"/>
+    <hyperlink ref="K46" r:id="rId106" xr:uid="{C88B914F-3794-411F-BCDF-83492AAFE4AC}"/>
+    <hyperlink ref="E47" r:id="rId107" xr:uid="{74602003-0B2C-4E02-8C19-D73E8A9F3E1B}"/>
+    <hyperlink ref="K47" r:id="rId108" xr:uid="{D7226882-EA48-4FCD-95FE-8E41150A23B9}"/>
+    <hyperlink ref="E48" r:id="rId109" xr:uid="{98E885E6-748D-4DED-96A3-27094FC37C88}"/>
+    <hyperlink ref="K48" r:id="rId110" xr:uid="{8E21CD28-31FA-4D96-8B17-EFC2D43B62E0}"/>
+    <hyperlink ref="E49" r:id="rId111" xr:uid="{8B948CB9-E2E6-4BEB-A05D-880006764E33}"/>
+    <hyperlink ref="E50" r:id="rId112" xr:uid="{882E7090-14F9-44E2-88DC-8B7E8D1BAB58}"/>
+    <hyperlink ref="E51" r:id="rId113" xr:uid="{48B2E8DE-1692-467F-9122-A1BB87B681E6}"/>
+    <hyperlink ref="E52" r:id="rId114" xr:uid="{D27CBA5F-843F-490E-A93D-1A92B7A47F87}"/>
+    <hyperlink ref="E53" r:id="rId115" xr:uid="{F090AF27-5F1C-4EBB-8A77-F649BA6D7AB1}"/>
+    <hyperlink ref="E54" r:id="rId116" xr:uid="{C61E5356-6D40-4516-8B96-E7C007D83063}"/>
+    <hyperlink ref="E55" r:id="rId117" xr:uid="{BB9353AC-E69A-4792-9915-E6E03D992EDB}"/>
+    <hyperlink ref="E56" r:id="rId118" xr:uid="{C175D3DC-5203-43B9-BBE5-4B9A385DF07E}"/>
+    <hyperlink ref="E57" r:id="rId119" xr:uid="{40A0AEF9-0896-4F11-A021-056C60A1AA0C}"/>
+    <hyperlink ref="E58" r:id="rId120" xr:uid="{8FBD5901-37A1-4D40-9F2D-45C16EB6788B}"/>
+    <hyperlink ref="E59" r:id="rId121" xr:uid="{AF9B1D15-6B5D-45F1-BB16-109BC339117D}"/>
+    <hyperlink ref="E60" r:id="rId122" xr:uid="{1E4C48D8-952D-4C01-AB5F-A436F6E5E40B}"/>
+    <hyperlink ref="E61" r:id="rId123" xr:uid="{AB6293CF-43D3-48CA-8922-3F97493EB311}"/>
+    <hyperlink ref="E62" r:id="rId124" xr:uid="{9865463C-F257-4B2D-ABC1-D79CA50A8FF3}"/>
+    <hyperlink ref="E63" r:id="rId125" xr:uid="{8088BE7E-5364-4DFD-B085-82134C61A581}"/>
+    <hyperlink ref="E64" r:id="rId126" xr:uid="{DB18512F-4922-4F82-B327-6C800A80A118}"/>
+    <hyperlink ref="E65" r:id="rId127" xr:uid="{CC564FD1-C186-4243-BFB8-9D0803453221}"/>
+    <hyperlink ref="E66" r:id="rId128" xr:uid="{DEAC8DE7-22E2-481D-A92D-B5724D3FB0C1}"/>
+    <hyperlink ref="E67" r:id="rId129" xr:uid="{5AEFAD84-C3E5-46DB-BD6F-A24127DF6805}"/>
+    <hyperlink ref="E68" r:id="rId130" xr:uid="{D0B8953C-1063-4965-9A72-D2BE1B9F0236}"/>
+    <hyperlink ref="E69" r:id="rId131" xr:uid="{70C38A0A-6C8D-4AB9-9E5B-9FD050E9F180}"/>
+    <hyperlink ref="E70" r:id="rId132" xr:uid="{E57313D2-106F-4635-8CD9-0ED6630AA20F}"/>
+    <hyperlink ref="E71" r:id="rId133" xr:uid="{BD1B2F1E-48F9-4E4D-A41D-5D308065DBA6}"/>
+    <hyperlink ref="E72" r:id="rId134" xr:uid="{4C560E5E-9B6A-4DD1-A22F-091C01C1C88E}"/>
+    <hyperlink ref="E115" r:id="rId135" xr:uid="{F73ACDC5-E716-45FB-8624-8016186266D5}"/>
+    <hyperlink ref="E116" r:id="rId136" xr:uid="{0B0B71F9-00E2-4325-8B98-0B5129AA73F4}"/>
+    <hyperlink ref="E117" r:id="rId137" xr:uid="{8E9A418C-640E-433B-A782-7079B6851892}"/>
+    <hyperlink ref="E119" r:id="rId138" xr:uid="{26F75B8A-A1FB-4AC4-A703-E1A06D66EECC}"/>
+    <hyperlink ref="E118" r:id="rId139" xr:uid="{3654D59C-62FA-4EC3-9E8B-7793B29FD18F}"/>
+    <hyperlink ref="E114" r:id="rId140" xr:uid="{79ACAE1B-6184-4B77-9D70-9287D5E5B5E1}"/>
+    <hyperlink ref="E103" r:id="rId141" xr:uid="{E963C6D7-4BDE-4B11-AD1A-CDD137028642}"/>
+    <hyperlink ref="E101" r:id="rId142" xr:uid="{886C16C8-5C36-4EF1-BA40-399368DB7897}"/>
+    <hyperlink ref="E98" r:id="rId143" xr:uid="{C0E2D530-B23D-48A2-935B-1E4411F69205}"/>
+    <hyperlink ref="E93" r:id="rId144" xr:uid="{92A2F32E-E51E-46FE-A2BC-3446D95EDEEB}"/>
+    <hyperlink ref="E92" r:id="rId145" xr:uid="{37D48DE8-0926-4E3D-998C-2D17FF188B7B}"/>
+    <hyperlink ref="E74" r:id="rId146" xr:uid="{455F0796-2CC1-4A70-8821-18995DE97289}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34106,8 +34107,8 @@
   </sheetPr>
   <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection sqref="A1:XFD72"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -34770,7 +34771,7 @@
         <v>3</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>119</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -36327,100 +36328,99 @@
     <hyperlink ref="Q13" r:id="rId39" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
     <hyperlink ref="E14" r:id="rId40" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
     <hyperlink ref="K14" r:id="rId41" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
-    <hyperlink ref="Q14" r:id="rId42" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
-    <hyperlink ref="E15" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
-    <hyperlink ref="K15" r:id="rId44" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
-    <hyperlink ref="Q15" r:id="rId45" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
-    <hyperlink ref="E16" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
-    <hyperlink ref="K16" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
-    <hyperlink ref="E17" r:id="rId48" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
-    <hyperlink ref="K17" r:id="rId49" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
-    <hyperlink ref="E18" r:id="rId50" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
-    <hyperlink ref="K18" r:id="rId51" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
-    <hyperlink ref="E19" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
-    <hyperlink ref="K19" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
-    <hyperlink ref="E20" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
-    <hyperlink ref="K20" r:id="rId55" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
-    <hyperlink ref="E21" r:id="rId56" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
-    <hyperlink ref="K21" r:id="rId57" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
-    <hyperlink ref="E22" r:id="rId58" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
-    <hyperlink ref="K22" r:id="rId59" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
-    <hyperlink ref="E23" r:id="rId60" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
-    <hyperlink ref="K23" r:id="rId61" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
-    <hyperlink ref="E24" r:id="rId62" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
-    <hyperlink ref="K24" r:id="rId63" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
-    <hyperlink ref="E25" r:id="rId64" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
-    <hyperlink ref="K25" r:id="rId65" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
-    <hyperlink ref="E26" r:id="rId66" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
-    <hyperlink ref="K26" r:id="rId67" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
-    <hyperlink ref="E27" r:id="rId68" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
-    <hyperlink ref="K27" r:id="rId69" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
-    <hyperlink ref="E28" r:id="rId70" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
-    <hyperlink ref="K28" r:id="rId71" xr:uid="{00000000-0004-0000-0200-000046000000}"/>
-    <hyperlink ref="E29" r:id="rId72" xr:uid="{00000000-0004-0000-0200-000047000000}"/>
-    <hyperlink ref="K29" r:id="rId73" xr:uid="{00000000-0004-0000-0200-000048000000}"/>
-    <hyperlink ref="E30" r:id="rId74" xr:uid="{00000000-0004-0000-0200-000049000000}"/>
-    <hyperlink ref="K30" r:id="rId75" xr:uid="{00000000-0004-0000-0200-00004A000000}"/>
-    <hyperlink ref="E31" r:id="rId76" xr:uid="{00000000-0004-0000-0200-00004B000000}"/>
-    <hyperlink ref="K31" r:id="rId77" xr:uid="{00000000-0004-0000-0200-00004C000000}"/>
-    <hyperlink ref="E32" r:id="rId78" xr:uid="{00000000-0004-0000-0200-00004D000000}"/>
-    <hyperlink ref="K32" r:id="rId79" xr:uid="{00000000-0004-0000-0200-00004E000000}"/>
-    <hyperlink ref="E33" r:id="rId80" xr:uid="{00000000-0004-0000-0200-00004F000000}"/>
-    <hyperlink ref="K33" r:id="rId81" xr:uid="{00000000-0004-0000-0200-000050000000}"/>
-    <hyperlink ref="E34" r:id="rId82" xr:uid="{00000000-0004-0000-0200-000051000000}"/>
-    <hyperlink ref="K34" r:id="rId83" xr:uid="{00000000-0004-0000-0200-000052000000}"/>
-    <hyperlink ref="E35" r:id="rId84" xr:uid="{00000000-0004-0000-0200-000053000000}"/>
-    <hyperlink ref="K35" r:id="rId85" xr:uid="{00000000-0004-0000-0200-000054000000}"/>
-    <hyperlink ref="E36" r:id="rId86" xr:uid="{00000000-0004-0000-0200-000055000000}"/>
-    <hyperlink ref="K36" r:id="rId87" xr:uid="{00000000-0004-0000-0200-000056000000}"/>
-    <hyperlink ref="E37" r:id="rId88" xr:uid="{00000000-0004-0000-0200-000057000000}"/>
-    <hyperlink ref="K37" r:id="rId89" xr:uid="{00000000-0004-0000-0200-000058000000}"/>
-    <hyperlink ref="E38" r:id="rId90" xr:uid="{00000000-0004-0000-0200-000059000000}"/>
-    <hyperlink ref="K38" r:id="rId91" xr:uid="{00000000-0004-0000-0200-00005A000000}"/>
-    <hyperlink ref="E39" r:id="rId92" xr:uid="{00000000-0004-0000-0200-00005B000000}"/>
-    <hyperlink ref="K39" r:id="rId93" xr:uid="{00000000-0004-0000-0200-00005C000000}"/>
-    <hyperlink ref="E40" r:id="rId94" xr:uid="{00000000-0004-0000-0200-00005D000000}"/>
-    <hyperlink ref="K40" r:id="rId95" xr:uid="{00000000-0004-0000-0200-00005E000000}"/>
-    <hyperlink ref="E41" r:id="rId96" xr:uid="{00000000-0004-0000-0200-00005F000000}"/>
-    <hyperlink ref="K41" r:id="rId97" xr:uid="{00000000-0004-0000-0200-000060000000}"/>
-    <hyperlink ref="E42" r:id="rId98" xr:uid="{00000000-0004-0000-0200-000061000000}"/>
-    <hyperlink ref="K42" r:id="rId99" xr:uid="{00000000-0004-0000-0200-000062000000}"/>
-    <hyperlink ref="E43" r:id="rId100" xr:uid="{00000000-0004-0000-0200-000063000000}"/>
-    <hyperlink ref="K43" r:id="rId101" xr:uid="{00000000-0004-0000-0200-000064000000}"/>
-    <hyperlink ref="E44" r:id="rId102" xr:uid="{00000000-0004-0000-0200-000065000000}"/>
-    <hyperlink ref="K44" r:id="rId103" xr:uid="{00000000-0004-0000-0200-000066000000}"/>
-    <hyperlink ref="E45" r:id="rId104" xr:uid="{00000000-0004-0000-0200-000067000000}"/>
-    <hyperlink ref="K45" r:id="rId105" xr:uid="{00000000-0004-0000-0200-000068000000}"/>
-    <hyperlink ref="E46" r:id="rId106" xr:uid="{00000000-0004-0000-0200-000069000000}"/>
-    <hyperlink ref="K46" r:id="rId107" xr:uid="{00000000-0004-0000-0200-00006A000000}"/>
-    <hyperlink ref="E47" r:id="rId108" xr:uid="{00000000-0004-0000-0200-00006B000000}"/>
-    <hyperlink ref="K47" r:id="rId109" xr:uid="{00000000-0004-0000-0200-00006C000000}"/>
-    <hyperlink ref="E48" r:id="rId110" xr:uid="{00000000-0004-0000-0200-00006D000000}"/>
-    <hyperlink ref="K48" r:id="rId111" xr:uid="{00000000-0004-0000-0200-00006E000000}"/>
-    <hyperlink ref="E49" r:id="rId112" xr:uid="{00000000-0004-0000-0200-00006F000000}"/>
-    <hyperlink ref="E50" r:id="rId113" xr:uid="{00000000-0004-0000-0200-000070000000}"/>
-    <hyperlink ref="E51" r:id="rId114" xr:uid="{00000000-0004-0000-0200-000071000000}"/>
-    <hyperlink ref="E52" r:id="rId115" xr:uid="{00000000-0004-0000-0200-000072000000}"/>
-    <hyperlink ref="E53" r:id="rId116" xr:uid="{00000000-0004-0000-0200-000073000000}"/>
-    <hyperlink ref="E54" r:id="rId117" xr:uid="{00000000-0004-0000-0200-000074000000}"/>
-    <hyperlink ref="E55" r:id="rId118" xr:uid="{00000000-0004-0000-0200-000075000000}"/>
-    <hyperlink ref="E56" r:id="rId119" xr:uid="{00000000-0004-0000-0200-000076000000}"/>
-    <hyperlink ref="E57" r:id="rId120" xr:uid="{00000000-0004-0000-0200-000077000000}"/>
-    <hyperlink ref="E58" r:id="rId121" xr:uid="{00000000-0004-0000-0200-000078000000}"/>
-    <hyperlink ref="E59" r:id="rId122" xr:uid="{00000000-0004-0000-0200-000079000000}"/>
-    <hyperlink ref="E60" r:id="rId123" xr:uid="{00000000-0004-0000-0200-00007A000000}"/>
-    <hyperlink ref="E61" r:id="rId124" xr:uid="{00000000-0004-0000-0200-00007B000000}"/>
-    <hyperlink ref="E62" r:id="rId125" xr:uid="{00000000-0004-0000-0200-00007C000000}"/>
-    <hyperlink ref="E63" r:id="rId126" xr:uid="{00000000-0004-0000-0200-00007D000000}"/>
-    <hyperlink ref="E64" r:id="rId127" xr:uid="{00000000-0004-0000-0200-00007E000000}"/>
-    <hyperlink ref="E65" r:id="rId128" xr:uid="{00000000-0004-0000-0200-00007F000000}"/>
-    <hyperlink ref="E66" r:id="rId129" xr:uid="{00000000-0004-0000-0200-000080000000}"/>
-    <hyperlink ref="E67" r:id="rId130" xr:uid="{00000000-0004-0000-0200-000081000000}"/>
-    <hyperlink ref="E68" r:id="rId131" xr:uid="{00000000-0004-0000-0200-000082000000}"/>
-    <hyperlink ref="E69" r:id="rId132" xr:uid="{00000000-0004-0000-0200-000083000000}"/>
-    <hyperlink ref="E70" r:id="rId133" xr:uid="{00000000-0004-0000-0200-000084000000}"/>
-    <hyperlink ref="E71" r:id="rId134" xr:uid="{00000000-0004-0000-0200-000085000000}"/>
-    <hyperlink ref="E72" r:id="rId135" xr:uid="{00000000-0004-0000-0200-000086000000}"/>
+    <hyperlink ref="E15" r:id="rId42" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink ref="K15" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink ref="Q15" r:id="rId44" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink ref="E16" r:id="rId45" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink ref="K16" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink ref="E17" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink ref="K17" r:id="rId48" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink ref="E18" r:id="rId49" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
+    <hyperlink ref="K18" r:id="rId50" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
+    <hyperlink ref="E19" r:id="rId51" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
+    <hyperlink ref="K19" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
+    <hyperlink ref="E20" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
+    <hyperlink ref="K20" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
+    <hyperlink ref="E21" r:id="rId55" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
+    <hyperlink ref="K21" r:id="rId56" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
+    <hyperlink ref="E22" r:id="rId57" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
+    <hyperlink ref="K22" r:id="rId58" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
+    <hyperlink ref="E23" r:id="rId59" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
+    <hyperlink ref="K23" r:id="rId60" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
+    <hyperlink ref="E24" r:id="rId61" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
+    <hyperlink ref="K24" r:id="rId62" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
+    <hyperlink ref="E25" r:id="rId63" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
+    <hyperlink ref="K25" r:id="rId64" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
+    <hyperlink ref="E26" r:id="rId65" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
+    <hyperlink ref="K26" r:id="rId66" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
+    <hyperlink ref="E27" r:id="rId67" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
+    <hyperlink ref="K27" r:id="rId68" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
+    <hyperlink ref="E28" r:id="rId69" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
+    <hyperlink ref="K28" r:id="rId70" xr:uid="{00000000-0004-0000-0200-000046000000}"/>
+    <hyperlink ref="E29" r:id="rId71" xr:uid="{00000000-0004-0000-0200-000047000000}"/>
+    <hyperlink ref="K29" r:id="rId72" xr:uid="{00000000-0004-0000-0200-000048000000}"/>
+    <hyperlink ref="E30" r:id="rId73" xr:uid="{00000000-0004-0000-0200-000049000000}"/>
+    <hyperlink ref="K30" r:id="rId74" xr:uid="{00000000-0004-0000-0200-00004A000000}"/>
+    <hyperlink ref="E31" r:id="rId75" xr:uid="{00000000-0004-0000-0200-00004B000000}"/>
+    <hyperlink ref="K31" r:id="rId76" xr:uid="{00000000-0004-0000-0200-00004C000000}"/>
+    <hyperlink ref="E32" r:id="rId77" xr:uid="{00000000-0004-0000-0200-00004D000000}"/>
+    <hyperlink ref="K32" r:id="rId78" xr:uid="{00000000-0004-0000-0200-00004E000000}"/>
+    <hyperlink ref="E33" r:id="rId79" xr:uid="{00000000-0004-0000-0200-00004F000000}"/>
+    <hyperlink ref="K33" r:id="rId80" xr:uid="{00000000-0004-0000-0200-000050000000}"/>
+    <hyperlink ref="E34" r:id="rId81" xr:uid="{00000000-0004-0000-0200-000051000000}"/>
+    <hyperlink ref="K34" r:id="rId82" xr:uid="{00000000-0004-0000-0200-000052000000}"/>
+    <hyperlink ref="E35" r:id="rId83" xr:uid="{00000000-0004-0000-0200-000053000000}"/>
+    <hyperlink ref="K35" r:id="rId84" xr:uid="{00000000-0004-0000-0200-000054000000}"/>
+    <hyperlink ref="E36" r:id="rId85" xr:uid="{00000000-0004-0000-0200-000055000000}"/>
+    <hyperlink ref="K36" r:id="rId86" xr:uid="{00000000-0004-0000-0200-000056000000}"/>
+    <hyperlink ref="E37" r:id="rId87" xr:uid="{00000000-0004-0000-0200-000057000000}"/>
+    <hyperlink ref="K37" r:id="rId88" xr:uid="{00000000-0004-0000-0200-000058000000}"/>
+    <hyperlink ref="E38" r:id="rId89" xr:uid="{00000000-0004-0000-0200-000059000000}"/>
+    <hyperlink ref="K38" r:id="rId90" xr:uid="{00000000-0004-0000-0200-00005A000000}"/>
+    <hyperlink ref="E39" r:id="rId91" xr:uid="{00000000-0004-0000-0200-00005B000000}"/>
+    <hyperlink ref="K39" r:id="rId92" xr:uid="{00000000-0004-0000-0200-00005C000000}"/>
+    <hyperlink ref="E40" r:id="rId93" xr:uid="{00000000-0004-0000-0200-00005D000000}"/>
+    <hyperlink ref="K40" r:id="rId94" xr:uid="{00000000-0004-0000-0200-00005E000000}"/>
+    <hyperlink ref="E41" r:id="rId95" xr:uid="{00000000-0004-0000-0200-00005F000000}"/>
+    <hyperlink ref="K41" r:id="rId96" xr:uid="{00000000-0004-0000-0200-000060000000}"/>
+    <hyperlink ref="E42" r:id="rId97" xr:uid="{00000000-0004-0000-0200-000061000000}"/>
+    <hyperlink ref="K42" r:id="rId98" xr:uid="{00000000-0004-0000-0200-000062000000}"/>
+    <hyperlink ref="E43" r:id="rId99" xr:uid="{00000000-0004-0000-0200-000063000000}"/>
+    <hyperlink ref="K43" r:id="rId100" xr:uid="{00000000-0004-0000-0200-000064000000}"/>
+    <hyperlink ref="E44" r:id="rId101" xr:uid="{00000000-0004-0000-0200-000065000000}"/>
+    <hyperlink ref="K44" r:id="rId102" xr:uid="{00000000-0004-0000-0200-000066000000}"/>
+    <hyperlink ref="E45" r:id="rId103" xr:uid="{00000000-0004-0000-0200-000067000000}"/>
+    <hyperlink ref="K45" r:id="rId104" xr:uid="{00000000-0004-0000-0200-000068000000}"/>
+    <hyperlink ref="E46" r:id="rId105" xr:uid="{00000000-0004-0000-0200-000069000000}"/>
+    <hyperlink ref="K46" r:id="rId106" xr:uid="{00000000-0004-0000-0200-00006A000000}"/>
+    <hyperlink ref="E47" r:id="rId107" xr:uid="{00000000-0004-0000-0200-00006B000000}"/>
+    <hyperlink ref="K47" r:id="rId108" xr:uid="{00000000-0004-0000-0200-00006C000000}"/>
+    <hyperlink ref="E48" r:id="rId109" xr:uid="{00000000-0004-0000-0200-00006D000000}"/>
+    <hyperlink ref="K48" r:id="rId110" xr:uid="{00000000-0004-0000-0200-00006E000000}"/>
+    <hyperlink ref="E49" r:id="rId111" xr:uid="{00000000-0004-0000-0200-00006F000000}"/>
+    <hyperlink ref="E50" r:id="rId112" xr:uid="{00000000-0004-0000-0200-000070000000}"/>
+    <hyperlink ref="E51" r:id="rId113" xr:uid="{00000000-0004-0000-0200-000071000000}"/>
+    <hyperlink ref="E52" r:id="rId114" xr:uid="{00000000-0004-0000-0200-000072000000}"/>
+    <hyperlink ref="E53" r:id="rId115" xr:uid="{00000000-0004-0000-0200-000073000000}"/>
+    <hyperlink ref="E54" r:id="rId116" xr:uid="{00000000-0004-0000-0200-000074000000}"/>
+    <hyperlink ref="E55" r:id="rId117" xr:uid="{00000000-0004-0000-0200-000075000000}"/>
+    <hyperlink ref="E56" r:id="rId118" xr:uid="{00000000-0004-0000-0200-000076000000}"/>
+    <hyperlink ref="E57" r:id="rId119" xr:uid="{00000000-0004-0000-0200-000077000000}"/>
+    <hyperlink ref="E58" r:id="rId120" xr:uid="{00000000-0004-0000-0200-000078000000}"/>
+    <hyperlink ref="E59" r:id="rId121" xr:uid="{00000000-0004-0000-0200-000079000000}"/>
+    <hyperlink ref="E60" r:id="rId122" xr:uid="{00000000-0004-0000-0200-00007A000000}"/>
+    <hyperlink ref="E61" r:id="rId123" xr:uid="{00000000-0004-0000-0200-00007B000000}"/>
+    <hyperlink ref="E62" r:id="rId124" xr:uid="{00000000-0004-0000-0200-00007C000000}"/>
+    <hyperlink ref="E63" r:id="rId125" xr:uid="{00000000-0004-0000-0200-00007D000000}"/>
+    <hyperlink ref="E64" r:id="rId126" xr:uid="{00000000-0004-0000-0200-00007E000000}"/>
+    <hyperlink ref="E65" r:id="rId127" xr:uid="{00000000-0004-0000-0200-00007F000000}"/>
+    <hyperlink ref="E66" r:id="rId128" xr:uid="{00000000-0004-0000-0200-000080000000}"/>
+    <hyperlink ref="E67" r:id="rId129" xr:uid="{00000000-0004-0000-0200-000081000000}"/>
+    <hyperlink ref="E68" r:id="rId130" xr:uid="{00000000-0004-0000-0200-000082000000}"/>
+    <hyperlink ref="E69" r:id="rId131" xr:uid="{00000000-0004-0000-0200-000083000000}"/>
+    <hyperlink ref="E70" r:id="rId132" xr:uid="{00000000-0004-0000-0200-000084000000}"/>
+    <hyperlink ref="E71" r:id="rId133" xr:uid="{00000000-0004-0000-0200-000085000000}"/>
+    <hyperlink ref="E72" r:id="rId134" xr:uid="{00000000-0004-0000-0200-000086000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SummonPool.xlsx
+++ b/SummonPool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah Rudin\Desktop\gacha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B064212E-B16F-4758-B90A-0A4604773E98}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E65488-436F-4388-AA4F-EC9C4DB7C3FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bf" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="543">
   <si>
     <t>Naruto Uzumaki</t>
   </si>
@@ -1655,6 +1655,12 @@
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/naruto-shippuden-ultimate-ninja-blazing/images/8/86/Card-0118.png/revision/latest?cb=20161104214356</t>
+  </si>
+  <si>
+    <t>Godlike Power</t>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/naruto-shippuden-ultimate-ninja-blazing/images/e/e6/Card-2085.png/revision/latest?cb=20200512095000</t>
   </si>
 </sst>
 </file>
@@ -1942,7 +1948,7 @@
   </sheetPr>
   <dimension ref="A1:Q135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
@@ -5306,8 +5312,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9006,19 +9012,19 @@
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
-        <v>876</v>
+        <v>893</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>278</v>
+        <v>228</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D113" s="4">
         <v>5</v>
       </c>
-      <c r="E113" s="4" t="s">
-        <v>499</v>
+      <c r="E113" s="5" t="s">
+        <v>498</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -9044,19 +9050,19 @@
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
-        <v>893</v>
+        <v>2006</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D114" s="4">
         <v>5</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
@@ -9082,19 +9088,19 @@
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
-        <v>2006</v>
+        <v>2051</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>260</v>
+        <v>18</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D115" s="4">
         <v>5</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
@@ -9120,19 +9126,19 @@
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
-        <v>2019</v>
+        <v>2074</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>378</v>
+        <v>315</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D116" s="4">
         <v>5</v>
       </c>
-      <c r="E116" s="5" t="s">
-        <v>493</v>
+      <c r="E116" s="4" t="s">
+        <v>497</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
@@ -9158,19 +9164,19 @@
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
-        <v>2036</v>
+        <v>876</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D117" s="4">
         <v>5</v>
       </c>
-      <c r="E117" s="5" t="s">
-        <v>494</v>
+      <c r="E117" s="4" t="s">
+        <v>499</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
@@ -9196,19 +9202,19 @@
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
-        <v>2051</v>
+        <v>2036</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D118" s="4">
         <v>5</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
@@ -9234,19 +9240,19 @@
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
-        <v>2062</v>
+        <v>2019</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D119" s="4">
         <v>5</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
@@ -9272,19 +9278,19 @@
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
-        <v>2074</v>
+        <v>2062</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>315</v>
+        <v>395</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D120" s="4">
         <v>5</v>
       </c>
-      <c r="E120" s="4" t="s">
-        <v>497</v>
+      <c r="E120" s="5" t="s">
+        <v>496</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
@@ -9309,11 +9315,21 @@
       <c r="Z120" s="2"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
+      <c r="A121" s="2">
+        <v>2085</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="D121" s="2">
+        <v>5</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>542</v>
+      </c>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
@@ -33809,7 +33825,6 @@
       <c r="Z995" s="2"/>
     </row>
     <row r="996" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>
       <c r="D996" s="2"/>
@@ -33837,12 +33852,6 @@
       <c r="Z996" s="2"/>
     </row>
     <row r="997" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A997" s="2"/>
-      <c r="B997" s="2"/>
-      <c r="C997" s="2"/>
-      <c r="D997" s="2"/>
-      <c r="E997" s="2"/>
-      <c r="F997" s="2"/>
       <c r="G997" s="2"/>
       <c r="H997" s="2"/>
       <c r="I997" s="2"/>
@@ -33865,12 +33874,6 @@
       <c r="Z997" s="2"/>
     </row>
     <row r="998" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A998" s="2"/>
-      <c r="B998" s="2"/>
-      <c r="C998" s="2"/>
-      <c r="D998" s="2"/>
-      <c r="E998" s="2"/>
-      <c r="F998" s="2"/>
       <c r="G998" s="2"/>
       <c r="H998" s="2"/>
       <c r="I998" s="2"/>
@@ -33893,12 +33896,6 @@
       <c r="Z998" s="2"/>
     </row>
     <row r="999" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A999" s="2"/>
-      <c r="B999" s="2"/>
-      <c r="C999" s="2"/>
-      <c r="D999" s="2"/>
-      <c r="E999" s="2"/>
-      <c r="F999" s="2"/>
       <c r="G999" s="2"/>
       <c r="H999" s="2"/>
       <c r="I999" s="2"/>
@@ -33921,11 +33918,6 @@
       <c r="Z999" s="2"/>
     </row>
     <row r="1000" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B1000" s="2"/>
-      <c r="C1000" s="2"/>
-      <c r="D1000" s="2"/>
-      <c r="E1000" s="2"/>
-      <c r="F1000" s="2"/>
       <c r="G1000" s="2"/>
       <c r="H1000" s="2"/>
       <c r="I1000" s="2"/>
@@ -34083,12 +34075,12 @@
     <hyperlink ref="E70" r:id="rId132" xr:uid="{E57313D2-106F-4635-8CD9-0ED6630AA20F}"/>
     <hyperlink ref="E71" r:id="rId133" xr:uid="{BD1B2F1E-48F9-4E4D-A41D-5D308065DBA6}"/>
     <hyperlink ref="E72" r:id="rId134" xr:uid="{4C560E5E-9B6A-4DD1-A22F-091C01C1C88E}"/>
-    <hyperlink ref="E115" r:id="rId135" xr:uid="{F73ACDC5-E716-45FB-8624-8016186266D5}"/>
-    <hyperlink ref="E116" r:id="rId136" xr:uid="{0B0B71F9-00E2-4325-8B98-0B5129AA73F4}"/>
-    <hyperlink ref="E117" r:id="rId137" xr:uid="{8E9A418C-640E-433B-A782-7079B6851892}"/>
-    <hyperlink ref="E119" r:id="rId138" xr:uid="{26F75B8A-A1FB-4AC4-A703-E1A06D66EECC}"/>
-    <hyperlink ref="E118" r:id="rId139" xr:uid="{3654D59C-62FA-4EC3-9E8B-7793B29FD18F}"/>
-    <hyperlink ref="E114" r:id="rId140" xr:uid="{79ACAE1B-6184-4B77-9D70-9287D5E5B5E1}"/>
+    <hyperlink ref="E114" r:id="rId135" xr:uid="{F73ACDC5-E716-45FB-8624-8016186266D5}"/>
+    <hyperlink ref="E119" r:id="rId136" xr:uid="{0B0B71F9-00E2-4325-8B98-0B5129AA73F4}"/>
+    <hyperlink ref="E118" r:id="rId137" xr:uid="{8E9A418C-640E-433B-A782-7079B6851892}"/>
+    <hyperlink ref="E120" r:id="rId138" xr:uid="{26F75B8A-A1FB-4AC4-A703-E1A06D66EECC}"/>
+    <hyperlink ref="E115" r:id="rId139" xr:uid="{3654D59C-62FA-4EC3-9E8B-7793B29FD18F}"/>
+    <hyperlink ref="E113" r:id="rId140" xr:uid="{79ACAE1B-6184-4B77-9D70-9287D5E5B5E1}"/>
     <hyperlink ref="E103" r:id="rId141" xr:uid="{E963C6D7-4BDE-4B11-AD1A-CDD137028642}"/>
     <hyperlink ref="E101" r:id="rId142" xr:uid="{886C16C8-5C36-4EF1-BA40-399368DB7897}"/>
     <hyperlink ref="E98" r:id="rId143" xr:uid="{C0E2D530-B23D-48A2-935B-1E4411F69205}"/>

--- a/SummonPool.xlsx
+++ b/SummonPool.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah Rudin\Desktop\gacha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E65488-436F-4388-AA4F-EC9C4DB7C3FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F48D301-B7C6-4830-9275-5FC375701DDF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bf" sheetId="1" r:id="rId1"/>
     <sheet name="bb" sheetId="2" r:id="rId2"/>
     <sheet name="nb" sheetId="3" r:id="rId3"/>
-    <sheet name="BF Only" sheetId="4" r:id="rId4"/>
-    <sheet name="BB Only" sheetId="5" r:id="rId5"/>
+    <sheet name="special" sheetId="7" r:id="rId4"/>
+    <sheet name="BF Only" sheetId="4" r:id="rId5"/>
+    <sheet name="BB Only" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="544">
   <si>
     <t>Naruto Uzumaki</t>
   </si>
@@ -1661,6 +1662,9 @@
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/naruto-shippuden-ultimate-ninja-blazing/images/e/e6/Card-2085.png/revision/latest?cb=20200512095000</t>
+  </si>
+  <si>
+    <t>Endowed Power</t>
   </si>
 </sst>
 </file>
@@ -1712,7 +1716,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1727,6 +1731,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5312,7 +5317,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
@@ -34100,7 +34105,7 @@
   <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection sqref="A1:R245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -36419,6 +36424,2349 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5A3641-2DD8-4ED0-B9E8-A93A44175448}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:Q73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="14.42578125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>5</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1">
+        <v>4</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1">
+        <v>92</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1">
+        <v>54</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1">
+        <v>94</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1">
+        <v>56</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1">
+        <v>4</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="1">
+        <v>96</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1">
+        <v>58</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="1">
+        <v>4</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="1">
+        <v>98</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>139</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="1">
+        <v>60</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="1">
+        <v>100</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>146</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="1">
+        <v>62</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="1">
+        <v>102</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>150</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="1">
+        <v>64</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="1">
+        <v>4</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" s="1">
+        <v>104</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>161</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="1">
+        <v>66</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="1">
+        <v>106</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>167</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="1">
+        <v>68</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="1">
+        <v>4</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="1">
+        <v>108</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>175</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="1">
+        <v>70</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="1">
+        <v>4</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="1">
+        <v>110</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P10" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>200</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="1">
+        <v>72</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="1">
+        <v>4</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" s="1">
+        <v>112</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P11" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>219</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="1">
+        <v>74</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="M12" s="1">
+        <v>114</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P12" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>221</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="1">
+        <v>76</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" s="1">
+        <v>4</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="M13" s="1">
+        <v>116</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P13" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>225</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="1">
+        <v>78</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" s="1">
+        <v>4</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="M14" s="1">
+        <v>118</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="P14" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>235</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="1">
+        <v>80</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J15" s="1">
+        <v>4</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="M15" s="1">
+        <v>120</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P15" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>237</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="1">
+        <v>82</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" s="1">
+        <v>4</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>242</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="1">
+        <v>84</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J17" s="1">
+        <v>4</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>244</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" s="1">
+        <v>86</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" s="1">
+        <v>4</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>251</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="1">
+        <v>88</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19" s="1">
+        <v>4</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>253</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" s="1">
+        <v>90</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J20" s="1">
+        <v>4</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>255</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" s="1">
+        <v>93</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="1">
+        <v>4</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>263</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" s="1">
+        <v>95</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="1">
+        <v>4</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>265</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" s="1">
+        <v>97</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="1">
+        <v>4</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>271</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G24" s="1">
+        <v>99</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="1">
+        <v>4</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>289</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="1">
+        <v>5</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="1">
+        <v>101</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="1">
+        <v>4</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>291</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G26" s="1">
+        <v>103</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" s="1">
+        <v>4</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>300</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" s="1">
+        <v>5</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G27" s="1">
+        <v>105</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J27" s="1">
+        <v>4</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>302</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D28" s="1">
+        <v>5</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28" s="1">
+        <v>107</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J28" s="1">
+        <v>4</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>313</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" s="1">
+        <v>5</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G29" s="1">
+        <v>109</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J29" s="1">
+        <v>4</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>315</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G30" s="1">
+        <v>111</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J30" s="1">
+        <v>4</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>321</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" s="1">
+        <v>5</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G31" s="1">
+        <v>113</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J31" s="1">
+        <v>4</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>323</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D32" s="1">
+        <v>5</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G32" s="1">
+        <v>115</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J32" s="1">
+        <v>4</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>335</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D33" s="1">
+        <v>5</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G33" s="1">
+        <v>117</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J33" s="1">
+        <v>4</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>337</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D34" s="1">
+        <v>5</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G34" s="1">
+        <v>119</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J34" s="1">
+        <v>4</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>343</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D35" s="1">
+        <v>5</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G35" s="1">
+        <v>121</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J35" s="1">
+        <v>4</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>346</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D36" s="1">
+        <v>5</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G36" s="1">
+        <v>154</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J36" s="1">
+        <v>4</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>348</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D37" s="1">
+        <v>5</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G37" s="1">
+        <v>156</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J37" s="1">
+        <v>4</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>356</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D38" s="1">
+        <v>5</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G38" s="1">
+        <v>163</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J38" s="1">
+        <v>4</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>358</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D39" s="1">
+        <v>5</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G39" s="1">
+        <v>165</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J39" s="1">
+        <v>4</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>368</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D40" s="1">
+        <v>5</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G40" s="1">
+        <v>169</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J40" s="1">
+        <v>4</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>370</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D41" s="1">
+        <v>5</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G41" s="1">
+        <v>179</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J41" s="1">
+        <v>4</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>383</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D42" s="1">
+        <v>5</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G42" s="1">
+        <v>181</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J42" s="1">
+        <v>4</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>385</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D43" s="1">
+        <v>5</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G43" s="1">
+        <v>183</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J43" s="1">
+        <v>4</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>387</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D44" s="1">
+        <v>5</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G44" s="1">
+        <v>192</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J44" s="1">
+        <v>4</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>389</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D45" s="1">
+        <v>5</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G45" s="1">
+        <v>194</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J45" s="1">
+        <v>4</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>398</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D46" s="1">
+        <v>5</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="G46" s="1">
+        <v>196</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J46" s="1">
+        <v>4</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>400</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D47" s="1">
+        <v>5</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="G47" s="1">
+        <v>198</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J47" s="1">
+        <v>4</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>407</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D48" s="1">
+        <v>5</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G48" s="1">
+        <v>223</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J48" s="1">
+        <v>4</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>409</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D49" s="1">
+        <v>5</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>432</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D50" s="1">
+        <v>5</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>436</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D51" s="1">
+        <v>5</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>438</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D52" s="1">
+        <v>5</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>444</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D53" s="1">
+        <v>5</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>446</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D54" s="1">
+        <v>5</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>462</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D55" s="1">
+        <v>5</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>564</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D56" s="1">
+        <v>5</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>606</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D57" s="1">
+        <v>5</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>608</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D58" s="1">
+        <v>5</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>621</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D59" s="1">
+        <v>5</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>623</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D60" s="1">
+        <v>5</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>648</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D61" s="1">
+        <v>5</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>710</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D62" s="1">
+        <v>5</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>729</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D63" s="1">
+        <v>5</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>731</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D64" s="1">
+        <v>5</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>775</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D65" s="1">
+        <v>5</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>784</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D66" s="1">
+        <v>5</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>807</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D67" s="1">
+        <v>5</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>809</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D68" s="1">
+        <v>5</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>823</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D69" s="1">
+        <v>5</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>839</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D70" s="1">
+        <v>5</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>873</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D71" s="1">
+        <v>5</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D72" s="1">
+        <v>5</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>2089</v>
+      </c>
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>543</v>
+      </c>
+      <c r="D73">
+        <v>6</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" r:id="rId1" xr:uid="{56B005B4-EC7F-44E1-8A17-CD2163BA0D46}"/>
+    <hyperlink ref="K1" r:id="rId2" xr:uid="{6585A702-0B12-46EF-B722-66A055BE6AE6}"/>
+    <hyperlink ref="Q1" r:id="rId3" xr:uid="{18721F2F-E015-488C-A1A6-5F0D8D610D4D}"/>
+    <hyperlink ref="E2" r:id="rId4" xr:uid="{B905526B-5D95-4C1C-B829-FE82BE4603A5}"/>
+    <hyperlink ref="K2" r:id="rId5" xr:uid="{39C7AF4A-FA9F-480A-A5FD-489D3A1F5625}"/>
+    <hyperlink ref="Q2" r:id="rId6" xr:uid="{2FB60E47-3782-475A-B473-4BC466D3436B}"/>
+    <hyperlink ref="E3" r:id="rId7" xr:uid="{3D7419F5-F1AA-4A30-AA84-FF9B00A712B3}"/>
+    <hyperlink ref="K3" r:id="rId8" xr:uid="{CEC1D0C8-9798-4A09-96E1-B628F71F2EA0}"/>
+    <hyperlink ref="Q3" r:id="rId9" xr:uid="{3B059505-C020-45F8-A12C-D2D3B11197C2}"/>
+    <hyperlink ref="E4" r:id="rId10" xr:uid="{DAB51F0D-581D-45EA-AA6C-8F74FC055043}"/>
+    <hyperlink ref="K4" r:id="rId11" xr:uid="{0C0F9598-C96F-4A40-AFFB-66A8B5FFB3DB}"/>
+    <hyperlink ref="Q4" r:id="rId12" xr:uid="{028A1D2A-B131-4E36-9178-85D280C5C0B9}"/>
+    <hyperlink ref="E5" r:id="rId13" xr:uid="{0523CC4F-5526-4400-82D1-99EBB45C69A7}"/>
+    <hyperlink ref="K5" r:id="rId14" xr:uid="{E58E62BD-929A-40F0-A9D9-CBE2119E2FCA}"/>
+    <hyperlink ref="Q5" r:id="rId15" xr:uid="{642F45A7-20D1-4ACE-8847-C95898F24952}"/>
+    <hyperlink ref="E6" r:id="rId16" xr:uid="{5FB0D537-FD81-4E9F-852C-DC55E82360AA}"/>
+    <hyperlink ref="K6" r:id="rId17" xr:uid="{93AE8EB5-5545-4699-8B06-D8D6345168A9}"/>
+    <hyperlink ref="Q6" r:id="rId18" xr:uid="{0D7B0D9F-077E-442B-AAAA-6381438878B6}"/>
+    <hyperlink ref="E7" r:id="rId19" xr:uid="{6B6C07A7-1B0B-4AF6-9212-975A3DFACC01}"/>
+    <hyperlink ref="K7" r:id="rId20" xr:uid="{5257187D-D25C-446A-AFFA-91AC85A3A525}"/>
+    <hyperlink ref="Q7" r:id="rId21" xr:uid="{F61997E9-C35B-4C6D-914B-26A36280A61A}"/>
+    <hyperlink ref="E8" r:id="rId22" xr:uid="{021EEDB6-9820-4C95-B17D-7D62361AD5D7}"/>
+    <hyperlink ref="K8" r:id="rId23" xr:uid="{5AEE4F38-26E3-4880-ABF6-2EBB2993B594}"/>
+    <hyperlink ref="Q8" r:id="rId24" xr:uid="{7B38943B-FCD5-4EC2-A89F-C91947747B79}"/>
+    <hyperlink ref="E9" r:id="rId25" xr:uid="{51157A94-D7B3-4802-B0CF-3B11E14C4116}"/>
+    <hyperlink ref="K9" r:id="rId26" xr:uid="{E2938639-113C-4256-BF8B-2B0FEB7C1DA1}"/>
+    <hyperlink ref="Q9" r:id="rId27" xr:uid="{74E97FCB-1BF4-4BFE-9151-339F92582CFF}"/>
+    <hyperlink ref="E10" r:id="rId28" xr:uid="{F7F78CCE-8258-451B-BFF4-220429D96F04}"/>
+    <hyperlink ref="K10" r:id="rId29" xr:uid="{A92019EF-6350-4D67-BD50-D6001B130C32}"/>
+    <hyperlink ref="Q10" r:id="rId30" xr:uid="{FD73EBE6-5828-4307-B56F-3CE1447F53CD}"/>
+    <hyperlink ref="E11" r:id="rId31" xr:uid="{D9DA5E02-A89A-457D-90A3-7B157572515F}"/>
+    <hyperlink ref="K11" r:id="rId32" xr:uid="{4AB52D14-DF2F-4DC9-858A-A86141DFF15B}"/>
+    <hyperlink ref="Q11" r:id="rId33" xr:uid="{11BE57E0-F93C-4F62-87DD-6CFAEE85C4CF}"/>
+    <hyperlink ref="E12" r:id="rId34" xr:uid="{99FD3D33-BF69-4273-B507-E07F3D3B1261}"/>
+    <hyperlink ref="K12" r:id="rId35" xr:uid="{1888CE32-678B-45B2-BD49-5E1407C04C55}"/>
+    <hyperlink ref="Q12" r:id="rId36" xr:uid="{936F1168-49B1-4F29-9409-9F249B62E821}"/>
+    <hyperlink ref="E13" r:id="rId37" xr:uid="{059AEE8C-07AB-48C7-B2E5-97566EB0A4C7}"/>
+    <hyperlink ref="K13" r:id="rId38" xr:uid="{A1D25B44-8F4F-4CFA-883F-483464F010B6}"/>
+    <hyperlink ref="Q13" r:id="rId39" xr:uid="{61900F9B-7282-435B-80C5-26227AC71B36}"/>
+    <hyperlink ref="E14" r:id="rId40" xr:uid="{4EEAE96E-76C4-4271-8F0E-8ED5615A1BB9}"/>
+    <hyperlink ref="K14" r:id="rId41" xr:uid="{F64F45FE-EA4E-4496-812E-36A60547EAE8}"/>
+    <hyperlink ref="E15" r:id="rId42" xr:uid="{3942D1AB-122D-4017-B092-2D133DC6E866}"/>
+    <hyperlink ref="K15" r:id="rId43" xr:uid="{C440EA06-A0A6-4D46-A9CC-70B6F3C281A9}"/>
+    <hyperlink ref="Q15" r:id="rId44" xr:uid="{D9C4BE37-DAD7-4D62-A857-5284AE7FB76E}"/>
+    <hyperlink ref="E16" r:id="rId45" xr:uid="{A8E92D17-8B53-489E-9BA0-495417371609}"/>
+    <hyperlink ref="K16" r:id="rId46" xr:uid="{CB20A1A5-894C-4EEC-BAE2-8507731F8FED}"/>
+    <hyperlink ref="E17" r:id="rId47" xr:uid="{A0283C86-4999-4408-A5F8-8BC2B80563CB}"/>
+    <hyperlink ref="K17" r:id="rId48" xr:uid="{89114E91-4D88-4CD6-8C5A-C1DB6F82D83F}"/>
+    <hyperlink ref="E18" r:id="rId49" xr:uid="{A676E39C-60CC-483E-927C-A05A85BDF6A7}"/>
+    <hyperlink ref="K18" r:id="rId50" xr:uid="{99EF1095-BC5F-459C-A90A-43EB48E08350}"/>
+    <hyperlink ref="E19" r:id="rId51" xr:uid="{073C9038-3EA4-4BF6-A5D0-4DAF6219EC0C}"/>
+    <hyperlink ref="K19" r:id="rId52" xr:uid="{64BAE204-884F-425D-B724-9808B9602865}"/>
+    <hyperlink ref="E20" r:id="rId53" xr:uid="{4A04970C-A79D-4923-B061-F81EE63D827D}"/>
+    <hyperlink ref="K20" r:id="rId54" xr:uid="{B4528286-8154-410B-AB6E-D5CD002928A8}"/>
+    <hyperlink ref="E21" r:id="rId55" xr:uid="{AB4C0448-961F-476C-8E7F-B636F80EB100}"/>
+    <hyperlink ref="K21" r:id="rId56" xr:uid="{1DBD9D2B-823E-450C-BAB5-7683ABCB09B0}"/>
+    <hyperlink ref="E22" r:id="rId57" xr:uid="{CF975535-252C-4D09-8B80-F275DF76D9DB}"/>
+    <hyperlink ref="K22" r:id="rId58" xr:uid="{72C039A8-ACAB-4BB1-9C0A-302857047131}"/>
+    <hyperlink ref="E23" r:id="rId59" xr:uid="{15BB4EB9-8E37-4BC1-9A30-53E3F66E6DED}"/>
+    <hyperlink ref="K23" r:id="rId60" xr:uid="{6773A1C3-1C07-4361-9EF8-5073B5D81F2B}"/>
+    <hyperlink ref="E24" r:id="rId61" xr:uid="{16E9F28F-6C24-4D31-A0B4-58FB52B41CFD}"/>
+    <hyperlink ref="K24" r:id="rId62" xr:uid="{6AFCD2C0-1BA4-444B-B0D6-7AFCCD43B80C}"/>
+    <hyperlink ref="E25" r:id="rId63" xr:uid="{61C14447-8B90-4E9C-9918-0C7F9C8D052A}"/>
+    <hyperlink ref="K25" r:id="rId64" xr:uid="{A00E564B-8745-4836-A205-0511E2A9B56A}"/>
+    <hyperlink ref="E26" r:id="rId65" xr:uid="{DBC9AB2B-9C90-4794-97DC-E1A2C9D51A42}"/>
+    <hyperlink ref="K26" r:id="rId66" xr:uid="{E8FC1128-9C8F-42B2-8E2D-4591B96898A6}"/>
+    <hyperlink ref="E27" r:id="rId67" xr:uid="{77880CA0-227B-41D2-8FB6-48D5F35965EA}"/>
+    <hyperlink ref="K27" r:id="rId68" xr:uid="{891CC0D8-420D-43AD-BB05-2B825E1F9C45}"/>
+    <hyperlink ref="E28" r:id="rId69" xr:uid="{35EC9629-E945-4DDA-A035-FA3359A4BE2C}"/>
+    <hyperlink ref="K28" r:id="rId70" xr:uid="{402B78EF-E343-410F-BA63-C32633B722A5}"/>
+    <hyperlink ref="E29" r:id="rId71" xr:uid="{22E1602A-9514-4D28-8FCD-EC1F82487A0B}"/>
+    <hyperlink ref="K29" r:id="rId72" xr:uid="{9DF01B00-9489-4A4F-8D68-D33E42270501}"/>
+    <hyperlink ref="E30" r:id="rId73" xr:uid="{8D3E51F9-3E05-4612-807A-E3EE7311D385}"/>
+    <hyperlink ref="K30" r:id="rId74" xr:uid="{96D770D5-F95F-4659-9924-AE4C13E476FA}"/>
+    <hyperlink ref="E31" r:id="rId75" xr:uid="{0F78EFF4-266A-43BE-BA5D-809ECC9CB664}"/>
+    <hyperlink ref="K31" r:id="rId76" xr:uid="{72E37EEF-5B3F-4CA6-9625-E771D19A369D}"/>
+    <hyperlink ref="E32" r:id="rId77" xr:uid="{8FDB5EC9-6643-4AD5-931F-242B760FA639}"/>
+    <hyperlink ref="K32" r:id="rId78" xr:uid="{EDA91A08-3BE0-417F-B0D5-1F0721803B69}"/>
+    <hyperlink ref="E33" r:id="rId79" xr:uid="{310C2335-B877-4EF9-84F4-60DC54860556}"/>
+    <hyperlink ref="K33" r:id="rId80" xr:uid="{B3C7AA4A-A1A4-40E9-97DD-2E0C2C68F8D4}"/>
+    <hyperlink ref="E34" r:id="rId81" xr:uid="{0779900A-4D54-4257-8F40-7BDB7E4758D7}"/>
+    <hyperlink ref="K34" r:id="rId82" xr:uid="{B1B9EAB3-ACC9-46DA-AEAB-186443A93188}"/>
+    <hyperlink ref="E35" r:id="rId83" xr:uid="{40F36F4D-CE37-4D1D-B8F3-05485E877571}"/>
+    <hyperlink ref="K35" r:id="rId84" xr:uid="{B2B774B4-8C3D-4E39-83F6-B47F29E9C913}"/>
+    <hyperlink ref="E36" r:id="rId85" xr:uid="{00C305D9-A3B1-4F1E-8F7F-439DAA97E5AE}"/>
+    <hyperlink ref="K36" r:id="rId86" xr:uid="{FFE017DF-A8B2-483E-A299-59092E5BBE4C}"/>
+    <hyperlink ref="E37" r:id="rId87" xr:uid="{6CB9B8C4-17EC-4C2D-9368-A2D157424528}"/>
+    <hyperlink ref="K37" r:id="rId88" xr:uid="{80CD7D0C-89CD-4657-A436-95362A2BC2FB}"/>
+    <hyperlink ref="E38" r:id="rId89" xr:uid="{4F46DA93-409E-412D-A0F9-F17A4AF5C422}"/>
+    <hyperlink ref="K38" r:id="rId90" xr:uid="{BB1ABB69-44B6-488E-A709-4E2F47FB57A7}"/>
+    <hyperlink ref="E39" r:id="rId91" xr:uid="{82284DAF-BD3B-477F-8ED5-487C72620A68}"/>
+    <hyperlink ref="K39" r:id="rId92" xr:uid="{B10C3097-60D6-4DCB-9E8F-274114259208}"/>
+    <hyperlink ref="E40" r:id="rId93" xr:uid="{C1403DD5-73FE-46DA-9387-91E79FCE429B}"/>
+    <hyperlink ref="K40" r:id="rId94" xr:uid="{7C9E9DB6-FBD2-4D9A-A9AC-D75C34392885}"/>
+    <hyperlink ref="E41" r:id="rId95" xr:uid="{34AD69C8-FBBE-4264-AF8B-FADA5B617767}"/>
+    <hyperlink ref="K41" r:id="rId96" xr:uid="{0EBEE031-3018-40C0-9B6E-41669E1CA631}"/>
+    <hyperlink ref="E42" r:id="rId97" xr:uid="{6D54507F-E220-4066-A159-B6498C3C67BE}"/>
+    <hyperlink ref="K42" r:id="rId98" xr:uid="{1B597C56-4EE1-40FC-B20D-4BA59D940C98}"/>
+    <hyperlink ref="E43" r:id="rId99" xr:uid="{37800CE6-461F-4395-AA2B-7A8DF06969DA}"/>
+    <hyperlink ref="K43" r:id="rId100" xr:uid="{32C50E17-1131-43A4-9023-F73771368AE2}"/>
+    <hyperlink ref="E44" r:id="rId101" xr:uid="{2CE0E31F-1428-4D85-B28F-0DA43E1066C5}"/>
+    <hyperlink ref="K44" r:id="rId102" xr:uid="{2383A698-A731-43E4-A81A-162B2448D9FD}"/>
+    <hyperlink ref="E45" r:id="rId103" xr:uid="{4A31FDDF-15C0-423A-9E95-0D229B78B81A}"/>
+    <hyperlink ref="K45" r:id="rId104" xr:uid="{85AF8EC5-B7C9-43D2-AD77-008A8D4D8DC9}"/>
+    <hyperlink ref="E46" r:id="rId105" xr:uid="{26FD68B9-D87E-40DD-8CE5-D1CD60A145FC}"/>
+    <hyperlink ref="K46" r:id="rId106" xr:uid="{90B5EC7E-8818-470B-BE27-1B3FA501D691}"/>
+    <hyperlink ref="E47" r:id="rId107" xr:uid="{25386BF3-5C68-4469-84D4-25302EBE7FF2}"/>
+    <hyperlink ref="K47" r:id="rId108" xr:uid="{DBE814F9-F06D-4DAF-90EA-662FD77DC557}"/>
+    <hyperlink ref="E48" r:id="rId109" xr:uid="{61343473-B2BC-403C-BC61-E721BC29C1D0}"/>
+    <hyperlink ref="K48" r:id="rId110" xr:uid="{2FF0EB60-D844-4477-AD2A-27573EB51A92}"/>
+    <hyperlink ref="E49" r:id="rId111" xr:uid="{830DBF76-9E92-4DBE-9C12-CE6BD4AE2C51}"/>
+    <hyperlink ref="E50" r:id="rId112" xr:uid="{FFE5F3BA-3C04-4C8D-8BE4-15806F1074CD}"/>
+    <hyperlink ref="E51" r:id="rId113" xr:uid="{461A5C01-FA95-4EE7-BED3-FABB96547191}"/>
+    <hyperlink ref="E52" r:id="rId114" xr:uid="{2271ADD3-1AF4-4AB7-B4FD-1FF685DC9211}"/>
+    <hyperlink ref="E53" r:id="rId115" xr:uid="{5E469D19-0250-44D3-833B-711D89566F7F}"/>
+    <hyperlink ref="E54" r:id="rId116" xr:uid="{01E4B6DE-0DB6-4159-ADE0-4104DA3B718F}"/>
+    <hyperlink ref="E55" r:id="rId117" xr:uid="{A7C0D04F-5C40-4F9F-851F-E141ADB49777}"/>
+    <hyperlink ref="E56" r:id="rId118" xr:uid="{CBE6F1FA-8A70-48BA-A454-3B4E05D68C8B}"/>
+    <hyperlink ref="E57" r:id="rId119" xr:uid="{A4CFD2D6-4AB3-4B78-9834-DF51CEA178D2}"/>
+    <hyperlink ref="E58" r:id="rId120" xr:uid="{832A6884-3BEE-4D18-8080-3BFBA7131B9B}"/>
+    <hyperlink ref="E59" r:id="rId121" xr:uid="{A7F0950D-9465-416D-98E4-3F91D9497927}"/>
+    <hyperlink ref="E60" r:id="rId122" xr:uid="{95F6441F-AA9F-4656-AB51-B16BDA6356CB}"/>
+    <hyperlink ref="E61" r:id="rId123" xr:uid="{896C5B72-FEB8-40A9-83C9-3FE0F4F3702B}"/>
+    <hyperlink ref="E62" r:id="rId124" xr:uid="{3DA47318-F8D8-4294-92A3-5ED4FFB8C95E}"/>
+    <hyperlink ref="E63" r:id="rId125" xr:uid="{D04706A0-9111-48B9-8594-2A0C651FAC29}"/>
+    <hyperlink ref="E64" r:id="rId126" xr:uid="{2010ECBB-7A97-401E-9159-39FB2FB99A7F}"/>
+    <hyperlink ref="E65" r:id="rId127" xr:uid="{E16DB587-A0E2-49B6-9431-3478D7C4290A}"/>
+    <hyperlink ref="E66" r:id="rId128" xr:uid="{AAF277C8-D63D-4C70-BC75-EF671C513ABE}"/>
+    <hyperlink ref="E67" r:id="rId129" xr:uid="{85399067-F253-4126-82A7-EAF3542DC2A2}"/>
+    <hyperlink ref="E68" r:id="rId130" xr:uid="{5CF74A2A-BAA7-46D7-BB37-29540DE6285C}"/>
+    <hyperlink ref="E69" r:id="rId131" xr:uid="{22EC6EB6-47D4-4EA4-9F60-0D6B960D7A4B}"/>
+    <hyperlink ref="E70" r:id="rId132" xr:uid="{848491ED-5C26-4E19-8E63-AB62C8D4777C}"/>
+    <hyperlink ref="E71" r:id="rId133" xr:uid="{C95926D3-1DC2-42CD-81D6-BBD5A760498E}"/>
+    <hyperlink ref="E72" r:id="rId134" xr:uid="{60851A60-A2DA-443C-859F-8881D052737A}"/>
+    <hyperlink ref="E73" r:id="rId135" xr:uid="{35032BE0-45C6-46B4-8411-9E2C11FCF28A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId136"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -37428,7 +39776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280DD03D-C9DD-4EF5-8584-E8D4800D4081}">
   <dimension ref="A1:E48"/>
   <sheetViews>

--- a/SummonPool.xlsx
+++ b/SummonPool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah Rudin\Desktop\gacha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F48D301-B7C6-4830-9275-5FC375701DDF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E882F5F6-8832-4187-9948-8EA201B82025}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="545">
   <si>
     <t>Naruto Uzumaki</t>
   </si>
@@ -1665,6 +1665,9 @@
   </si>
   <si>
     <t>Endowed Power</t>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/naruto-shippuden-ultimate-ninja-blazing/images/b/b8/Card-2089.png/revision/latest?cb=20200522144416</t>
   </si>
 </sst>
 </file>
@@ -1716,7 +1719,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1732,6 +1735,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -36430,7 +36434,9 @@
   </sheetPr>
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -38619,8 +38625,8 @@
       <c r="D73">
         <v>6</v>
       </c>
-      <c r="E73" s="6" t="s">
-        <v>61</v>
+      <c r="E73" s="7" t="s">
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -38759,7 +38765,7 @@
     <hyperlink ref="E70" r:id="rId132" xr:uid="{848491ED-5C26-4E19-8E63-AB62C8D4777C}"/>
     <hyperlink ref="E71" r:id="rId133" xr:uid="{C95926D3-1DC2-42CD-81D6-BBD5A760498E}"/>
     <hyperlink ref="E72" r:id="rId134" xr:uid="{60851A60-A2DA-443C-859F-8881D052737A}"/>
-    <hyperlink ref="E73" r:id="rId135" xr:uid="{35032BE0-45C6-46B4-8411-9E2C11FCF28A}"/>
+    <hyperlink ref="E73" r:id="rId135" xr:uid="{CBFB19DC-B1F2-40E1-970E-CEA66CDCE7FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId136"/>

--- a/SummonPool.xlsx
+++ b/SummonPool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah Rudin\Desktop\gacha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B61192E-191A-4956-BD0C-0FAB1BDD7C96}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B08C6D-982F-40BF-8D06-3B033AE4D49F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bf" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="546">
   <si>
     <t>Naruto Uzumaki</t>
   </si>
@@ -1665,6 +1665,12 @@
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/naruto-shippuden-ultimate-ninja-blazing/images/b/b8/Card-2089.png/revision/latest?cb=20200522144416</t>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/naruto-shippuden-ultimate-ninja-blazing/images/8/8f/Card-2094.png/revision/latest?cb=20200609083024</t>
+  </si>
+  <si>
+    <t>Talent and Burden</t>
   </si>
 </sst>
 </file>
@@ -1954,7 +1960,7 @@
   </sheetPr>
   <dimension ref="A1:Q135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -5318,8 +5324,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9359,11 +9365,21 @@
       <c r="Z121" s="2"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
+      <c r="A122" s="2">
+        <v>2094</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D122" s="2">
+        <v>5</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>544</v>
+      </c>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
@@ -39781,10 +39797,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280DD03D-C9DD-4EF5-8584-E8D4800D4081}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:E48"/>
+    <sheetView topLeftCell="A27" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -40603,6 +40619,23 @@
       </c>
       <c r="E48" s="4" t="s">
         <v>496</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2094</v>
+      </c>
+      <c r="B49" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" t="s">
+        <v>545</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49" t="s">
+        <v>544</v>
       </c>
     </row>
   </sheetData>

--- a/SummonPool.xlsx
+++ b/SummonPool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah Rudin\Desktop\gacha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B08C6D-982F-40BF-8D06-3B033AE4D49F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2A6820-58A2-4796-BDE6-D26D6241BC01}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bf" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="548">
   <si>
     <t>Naruto Uzumaki</t>
   </si>
@@ -1671,6 +1671,12 @@
   </si>
   <si>
     <t>Talent and Burden</t>
+  </si>
+  <si>
+    <t>Lightning Flash</t>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/naruto-shippuden-ultimate-ninja-blazing/images/4/47/Card-2100.png/revision/latest?cb=20200623092350</t>
   </si>
 </sst>
 </file>
@@ -1960,8 +1966,8 @@
   </sheetPr>
   <dimension ref="A1:Q135"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="H128" sqref="H128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5074,10 +5080,21 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
+      <c r="A128" s="4">
+        <v>2100</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D128" s="2">
+        <v>5</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B129" s="2"/>
@@ -5324,7 +5341,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>

--- a/SummonPool.xlsx
+++ b/SummonPool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah Rudin\Desktop\gacha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2A6820-58A2-4796-BDE6-D26D6241BC01}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAAE8AA-A654-4EC5-846A-5217E96E7BBF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bf" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="548">
   <si>
     <t>Naruto Uzumaki</t>
   </si>
@@ -1966,8 +1966,8 @@
   </sheetPr>
   <dimension ref="A1:Q135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="H128" sqref="H128"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128:E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -38807,10 +38807,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD55"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -39748,6 +39748,23 @@
       </c>
       <c r="E55" s="3" t="s">
         <v>441</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>2100</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D56" s="2">
+        <v>5</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>547</v>
       </c>
     </row>
   </sheetData>

--- a/SummonPool.xlsx
+++ b/SummonPool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah Rudin\Desktop\gacha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAAE8AA-A654-4EC5-846A-5217E96E7BBF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE2A62C-5228-430D-993F-C6AD3162F4D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="549">
   <si>
     <t>Naruto Uzumaki</t>
   </si>
@@ -1677,6 +1677,9 @@
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/naruto-shippuden-ultimate-ninja-blazing/images/4/47/Card-2100.png/revision/latest?cb=20200623092350</t>
+  </si>
+  <si>
+    <t>Raikosekka</t>
   </si>
 </sst>
 </file>
@@ -38809,13 +38812,13 @@
   </sheetPr>
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2">
         <v>142</v>
       </c>
@@ -38832,7 +38835,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>148</v>
       </c>
@@ -38849,7 +38852,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>173</v>
       </c>
@@ -38866,7 +38869,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>210</v>
       </c>
@@ -38883,7 +38886,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>229</v>
       </c>
@@ -38900,7 +38903,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>259</v>
       </c>
@@ -38917,7 +38920,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>283</v>
       </c>
@@ -38934,7 +38937,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>310</v>
       </c>
@@ -38951,7 +38954,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>333</v>
       </c>
@@ -38968,7 +38971,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>354</v>
       </c>
@@ -38985,7 +38988,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>375</v>
       </c>
@@ -39002,7 +39005,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>394</v>
       </c>
@@ -39019,7 +39022,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>417</v>
       </c>
@@ -39036,7 +39039,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>427</v>
       </c>
@@ -39053,7 +39056,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>429</v>
       </c>
@@ -39070,7 +39073,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>451</v>
       </c>
@@ -39087,7 +39090,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>468</v>
       </c>
@@ -39104,7 +39107,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>486</v>
       </c>
@@ -39121,7 +39124,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>508</v>
       </c>
@@ -39138,7 +39141,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>510</v>
       </c>
@@ -39155,7 +39158,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>534</v>
       </c>
@@ -39172,7 +39175,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>551</v>
       </c>
@@ -39189,7 +39192,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>568</v>
       </c>
@@ -39206,7 +39209,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>589</v>
       </c>
@@ -39223,7 +39226,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>593</v>
       </c>
@@ -39240,7 +39243,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>610</v>
       </c>
@@ -39257,7 +39260,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>627</v>
       </c>
@@ -39274,7 +39277,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>642</v>
       </c>
@@ -39291,7 +39294,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>659</v>
       </c>
@@ -39308,7 +39311,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>661</v>
       </c>
@@ -39325,7 +39328,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>680</v>
       </c>
@@ -39342,7 +39345,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>699</v>
       </c>
@@ -39359,7 +39362,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>714</v>
       </c>
@@ -39376,7 +39379,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>734</v>
       </c>
@@ -39393,7 +39396,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>745</v>
       </c>
@@ -39410,7 +39413,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>747</v>
       </c>
@@ -39427,7 +39430,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>760</v>
       </c>
@@ -39444,7 +39447,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>787</v>
       </c>
@@ -39461,7 +39464,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>800</v>
       </c>
@@ -39478,7 +39481,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>802</v>
       </c>
@@ -39495,7 +39498,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>817</v>
       </c>
@@ -39512,7 +39515,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>834</v>
       </c>
@@ -39529,7 +39532,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>846</v>
       </c>
@@ -39546,7 +39549,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>854</v>
       </c>
@@ -39563,7 +39566,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>856</v>
       </c>
@@ -39580,7 +39583,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>882</v>
       </c>
@@ -39597,7 +39600,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>884</v>
       </c>
@@ -39614,7 +39617,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>2002</v>
       </c>
@@ -39631,7 +39634,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>2014</v>
       </c>
@@ -39648,7 +39651,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>2029</v>
       </c>
@@ -39665,7 +39668,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>2031</v>
       </c>
@@ -39682,7 +39685,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>2042</v>
       </c>
@@ -39699,7 +39702,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>2057</v>
       </c>
@@ -39716,7 +39719,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>2069</v>
       </c>
@@ -39733,7 +39736,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" s="4" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>2080</v>
       </c>
@@ -39758,7 +39761,7 @@
         <v>264</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D56" s="2">
         <v>5</v>

--- a/SummonPool.xlsx
+++ b/SummonPool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah Rudin\Desktop\gacha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE2A62C-5228-430D-993F-C6AD3162F4D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2500AF58-8CC0-457D-9B57-D566E41622EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bf" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="551">
   <si>
     <t>Naruto Uzumaki</t>
   </si>
@@ -1680,6 +1680,12 @@
   </si>
   <si>
     <t>Raikosekka</t>
+  </si>
+  <si>
+    <t>View to Victory</t>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/naruto-shippuden-ultimate-ninja-blazing/images/b/bc/Card-2105.png/revision/latest?cb=20200707143932</t>
   </si>
 </sst>
 </file>
@@ -5344,8 +5350,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9423,11 +9429,21 @@
       <c r="Z122" s="2"/>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
+      <c r="A123" s="4">
+        <v>2105</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="D123" s="4">
+        <v>5</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>550</v>
+      </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
@@ -38812,7 +38828,7 @@
   </sheetPr>
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+    <sheetView topLeftCell="A54" workbookViewId="0">
       <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
@@ -39834,10 +39850,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280DD03D-C9DD-4EF5-8584-E8D4800D4081}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView topLeftCell="A27" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+      <selection activeCell="A50" sqref="A50:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -40673,6 +40689,23 @@
       </c>
       <c r="E49" t="s">
         <v>544</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>2105</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="D50" s="4">
+        <v>5</v>
+      </c>
+      <c r="E50" t="s">
+        <v>550</v>
       </c>
     </row>
   </sheetData>

--- a/SummonPool.xlsx
+++ b/SummonPool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah Rudin\Desktop\gacha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2500AF58-8CC0-457D-9B57-D566E41622EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B63B24-A0C9-46D4-BDCB-FD06F1455CCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4695" windowWidth="28800" windowHeight="10905" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bf" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="553">
   <si>
     <t>Naruto Uzumaki</t>
   </si>
@@ -1686,6 +1686,12 @@
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/naruto-shippuden-ultimate-ninja-blazing/images/b/bc/Card-2105.png/revision/latest?cb=20200707143932</t>
+  </si>
+  <si>
+    <t>The Power of Bonds</t>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/naruto-shippuden-ultimate-ninja-blazing/images/b/b8/Card-2109.png/revision/latest?cb=20200721090701</t>
   </si>
 </sst>
 </file>
@@ -1976,7 +1982,7 @@
   <dimension ref="A1:Q135"/>
   <sheetViews>
     <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128:E128"/>
+      <selection activeCell="A129" sqref="A129:E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5105,43 +5111,54 @@
         <v>547</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="4">
+        <v>2109</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D129" s="2">
+        <v>5</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -5350,7 +5367,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
@@ -38826,10 +38843,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -39784,6 +39801,23 @@
       </c>
       <c r="E56" s="2" t="s">
         <v>547</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>2109</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D57" s="2">
+        <v>5</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>552</v>
       </c>
     </row>
   </sheetData>

--- a/SummonPool.xlsx
+++ b/SummonPool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah Rudin\Desktop\gacha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B63B24-A0C9-46D4-BDCB-FD06F1455CCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1800AC-7860-4CC2-A4D8-F88D92B0E6A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4695" windowWidth="28800" windowHeight="10905" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bf" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2271" uniqueCount="555">
   <si>
     <t>Naruto Uzumaki</t>
   </si>
@@ -1661,12 +1661,6 @@
     <t>https://vignette.wikia.nocookie.net/naruto-shippuden-ultimate-ninja-blazing/images/e/e6/Card-2085.png/revision/latest?cb=20200512095000</t>
   </si>
   <si>
-    <t>Endowed Power</t>
-  </si>
-  <si>
-    <t>https://vignette.wikia.nocookie.net/naruto-shippuden-ultimate-ninja-blazing/images/b/b8/Card-2089.png/revision/latest?cb=20200522144416</t>
-  </si>
-  <si>
     <t>https://vignette.wikia.nocookie.net/naruto-shippuden-ultimate-ninja-blazing/images/8/8f/Card-2094.png/revision/latest?cb=20200609083024</t>
   </si>
   <si>
@@ -1692,6 +1686,18 @@
   </si>
   <si>
     <t>https://vignette.wikia.nocookie.net/naruto-shippuden-ultimate-ninja-blazing/images/b/b8/Card-2109.png/revision/latest?cb=20200721090701</t>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/naruto-shippuden-ultimate-ninja-blazing/images/7/7c/Card-2116.png/revision/latest?cb=20200804194549</t>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/naruto-shippuden-ultimate-ninja-blazing/images/0/02/Card-2114.png/revision/latest?cb=20200804194548</t>
+  </si>
+  <si>
+    <t>Sole Friend</t>
+  </si>
+  <si>
+    <t>Full-Out Battle</t>
   </si>
 </sst>
 </file>
@@ -5102,13 +5108,13 @@
         <v>264</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D128" s="2">
         <v>5</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -5119,13 +5125,13 @@
         <v>442</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D129" s="2">
         <v>5</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -9415,13 +9421,13 @@
         <v>144</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D122" s="2">
         <v>5</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
@@ -9453,13 +9459,13 @@
         <v>12</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D123" s="4">
         <v>5</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
@@ -36498,10 +36504,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -38679,20 +38685,37 @@
       </c>
     </row>
     <row r="73" spans="1:5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>2089</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="A73" s="1">
+        <v>2116</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D73" s="1">
+        <v>6</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
+        <v>2114</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C73" t="s">
-        <v>542</v>
-      </c>
-      <c r="D73">
+      <c r="C74" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D74" s="4">
         <v>6</v>
       </c>
-      <c r="E73" s="7" t="s">
-        <v>543</v>
+      <c r="E74" s="4" t="s">
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -38831,10 +38854,9 @@
     <hyperlink ref="E70" r:id="rId132" xr:uid="{848491ED-5C26-4E19-8E63-AB62C8D4777C}"/>
     <hyperlink ref="E71" r:id="rId133" xr:uid="{C95926D3-1DC2-42CD-81D6-BBD5A760498E}"/>
     <hyperlink ref="E72" r:id="rId134" xr:uid="{60851A60-A2DA-443C-859F-8881D052737A}"/>
-    <hyperlink ref="E73" r:id="rId135" xr:uid="{CBFB19DC-B1F2-40E1-970E-CEA66CDCE7FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId136"/>
+  <pageSetup orientation="portrait" r:id="rId135"/>
 </worksheet>
 </file>
 
@@ -38845,7 +38867,7 @@
   </sheetPr>
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+    <sheetView topLeftCell="A54" workbookViewId="0">
       <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
@@ -39794,13 +39816,13 @@
         <v>264</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D56" s="2">
         <v>5</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -39811,13 +39833,13 @@
         <v>442</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D57" s="2">
         <v>5</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -40716,13 +40738,13 @@
         <v>144</v>
       </c>
       <c r="C49" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D49">
         <v>5</v>
       </c>
       <c r="E49" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -40733,13 +40755,13 @@
         <v>12</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D50" s="4">
         <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>

--- a/SummonPool.xlsx
+++ b/SummonPool.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah Rudin\Desktop\gacha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noahr\Desktop\gacha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1800AC-7860-4CC2-A4D8-F88D92B0E6A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A207AAC-7A13-4611-BEC9-91249AEDCA42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bf" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2271" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="557">
   <si>
     <t>Naruto Uzumaki</t>
   </si>
@@ -1698,6 +1698,12 @@
   </si>
   <si>
     <t>Full-Out Battle</t>
+  </si>
+  <si>
+    <t>https://vignette.wikia.nocookie.net/naruto-shippuden-ultimate-ninja-blazing/images/5/5b/Card-2120.png/revision/latest?cb=20200818092942</t>
+  </si>
+  <si>
+    <t>Power of Rinne</t>
   </si>
 </sst>
 </file>
@@ -5373,8 +5379,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9490,11 +9496,21 @@
       <c r="Z123" s="2"/>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
+      <c r="A124" s="2">
+        <v>2120</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D124" s="2">
+        <v>5</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
@@ -34168,6 +34184,7 @@
     <hyperlink ref="E93" r:id="rId144" xr:uid="{92A2F32E-E51E-46FE-A2BC-3446D95EDEEB}"/>
     <hyperlink ref="E92" r:id="rId145" xr:uid="{37D48DE8-0926-4E3D-998C-2D17FF188B7B}"/>
     <hyperlink ref="E74" r:id="rId146" xr:uid="{455F0796-2CC1-4A70-8821-18995DE97289}"/>
+    <hyperlink ref="E124" r:id="rId147" xr:uid="{C530DE8B-22AD-461B-B209-C75282F85D50}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36506,8 +36523,8 @@
   </sheetPr>
   <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/SummonPool.xlsx
+++ b/SummonPool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noahr\Desktop\gacha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A207AAC-7A13-4611-BEC9-91249AEDCA42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEF5AD2-B797-4722-B50C-EC3FF581DCB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bf" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="559">
   <si>
     <t>Naruto Uzumaki</t>
   </si>
@@ -1704,6 +1704,12 @@
   </si>
   <si>
     <t>Power of Rinne</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/naruto-shippuden-ultimate-ninja-blazing/images/6/66/Card-2125.png/revision/latest?cb=20200825093530</t>
+  </si>
+  <si>
+    <t>Kage's Successor</t>
   </si>
 </sst>
 </file>
@@ -1993,8 +1999,8 @@
   </sheetPr>
   <dimension ref="A1:Q135"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129:E129"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4173,978 +4179,989 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>142</v>
+        <v>2125</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>325</v>
+        <v>18</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>326</v>
+        <v>558</v>
       </c>
       <c r="D73" s="2">
         <v>5</v>
       </c>
-      <c r="E73" s="3" t="s">
-        <v>327</v>
+      <c r="E73" s="2" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D74" s="2">
         <v>5</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>27</v>
+        <v>311</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D75" s="2">
         <v>5</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D76" s="2">
         <v>5</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>264</v>
+        <v>144</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D77" s="2">
         <v>5</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D78" s="2">
         <v>5</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D79" s="2">
         <v>5</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>295</v>
+        <v>27</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D80" s="2">
         <v>5</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>342</v>
+        <v>295</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D81" s="2">
         <v>5</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>277</v>
+        <v>342</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D82" s="2">
         <v>5</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>69</v>
+        <v>277</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D83" s="2">
         <v>5</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D84" s="2">
         <v>5</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>351</v>
+        <v>147</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D85" s="2">
         <v>5</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D86" s="2">
         <v>5</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D87" s="2">
         <v>5</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>358</v>
+        <v>9</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D88" s="2">
         <v>5</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>147</v>
+        <v>358</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D89" s="2">
         <v>5</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D90" s="2">
         <v>5</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
+        <v>486</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D91" s="2">
+        <v>5</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
         <v>508</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D91" s="2">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3" t="s">
+      <c r="D92" s="2">
+        <v>5</v>
+      </c>
+      <c r="E92" s="3" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
         <v>510</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B93" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D92" s="2">
-        <v>5</v>
-      </c>
-      <c r="E92" s="3" t="s">
+      <c r="D93" s="2">
+        <v>5</v>
+      </c>
+      <c r="E93" s="3" t="s">
         <v>368</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="2">
-        <v>534</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D93" s="2">
-        <v>5</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D94" s="2">
         <v>5</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D95" s="2">
         <v>5</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>589</v>
+        <v>568</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>342</v>
+        <v>9</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D96" s="2">
         <v>5</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>377</v>
+        <v>342</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D97" s="2">
         <v>5</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>610</v>
+        <v>593</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>88</v>
+        <v>377</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D98" s="2">
         <v>5</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>627</v>
+        <v>610</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>264</v>
+        <v>88</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D99" s="2">
         <v>5</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D100" s="2">
         <v>5</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>659</v>
+        <v>642</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D101" s="2">
         <v>5</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D102" s="2">
         <v>5</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>680</v>
+        <v>661</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>342</v>
+        <v>9</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D103" s="2">
         <v>5</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>699</v>
+        <v>680</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>144</v>
+        <v>342</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D104" s="2">
         <v>5</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>394</v>
+        <v>144</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D105" s="2">
         <v>5</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>734</v>
+        <v>714</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>18</v>
+        <v>394</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D106" s="2">
         <v>5</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>351</v>
+        <v>18</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D107" s="2">
         <v>5</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D108" s="2">
         <v>5</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>264</v>
+        <v>342</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D109" s="2">
         <v>5</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
-        <v>787</v>
+        <v>760</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>405</v>
+        <v>264</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D110" s="2">
         <v>5</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D111" s="2">
         <v>5</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D112" s="2">
         <v>5</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
-        <v>817</v>
+        <v>802</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>358</v>
+        <v>9</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D113" s="2">
         <v>5</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
-        <v>834</v>
+        <v>817</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>27</v>
+        <v>358</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D114" s="2">
         <v>5</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
-        <v>846</v>
+        <v>834</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D115" s="2">
         <v>5</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D116" s="2">
         <v>5</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D117" s="2">
         <v>5</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
-        <v>882</v>
+        <v>856</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D118" s="2">
         <v>5</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D119" s="2">
         <v>5</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
-        <v>2002</v>
+        <v>884</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D120" s="2">
         <v>5</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D121" s="2">
         <v>5</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
-        <v>2029</v>
+        <v>2014</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D122" s="2">
         <v>5</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D123" s="2">
         <v>5</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
-        <v>2042</v>
+        <v>2031</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>377</v>
+        <v>144</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D124" s="2">
         <v>5</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
-        <v>2057</v>
+        <v>2042</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D125" s="2">
         <v>5</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
-        <v>2069</v>
+        <v>2057</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>3</v>
+        <v>351</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D126" s="2">
         <v>5</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
+        <v>2069</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D127" s="2">
+        <v>5</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="2">
         <v>2080</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B128" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C128" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="D127" s="2">
-        <v>5</v>
-      </c>
-      <c r="E127" s="3" t="s">
+      <c r="D128" s="2">
+        <v>5</v>
+      </c>
+      <c r="E128" s="3" t="s">
         <v>441</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="4">
-        <v>2100</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="D128" s="2">
-        <v>5</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
+        <v>2100</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="D129" s="2">
+        <v>5</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="4">
         <v>2109</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B130" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C130" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="D129" s="2">
-        <v>5</v>
-      </c>
-      <c r="E129" s="2" t="s">
+      <c r="D130" s="2">
+        <v>5</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B131" s="2"/>
@@ -5312,61 +5329,61 @@
     <hyperlink ref="E70" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
     <hyperlink ref="E71" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
     <hyperlink ref="E72" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="E73" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="E74" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="E75" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="E76" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="E77" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="E78" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="E79" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="E80" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="E81" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="E82" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="E83" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="E84" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="E85" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="E86" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="E87" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="E88" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="E89" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="E90" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="E91" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="E92" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="E93" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="E94" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="E95" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="E96" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="E97" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="E98" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="E99" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="E100" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="E101" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="E102" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="E103" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="E104" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="E105" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="E106" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="E107" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="E108" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="E109" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="E110" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="E111" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="E112" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="E113" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="E114" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="E115" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="E116" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="E117" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="E118" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="E119" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="E120" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="E121" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="E122" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="E123" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="E124" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="E125" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="E126" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="E127" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="E74" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="E75" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="E76" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="E77" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="E78" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="E79" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="E80" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="E81" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="E82" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="E83" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="E84" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="E85" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="E86" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="E87" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="E88" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="E89" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="E90" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="E91" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="E92" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="E93" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="E94" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="E95" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="E96" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="E97" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="E98" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="E99" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="E100" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="E101" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="E102" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="E103" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="E104" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="E105" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="E106" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="E107" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="E108" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="E109" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="E110" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="E111" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="E112" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="E113" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="E114" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="E115" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="E116" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="E117" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="E118" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="E119" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="E120" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="E121" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="E122" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="E123" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="E124" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="E125" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="E126" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="E127" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="E128" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5379,8 +5396,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="F128" sqref="F128"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125:E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7558,20 +7575,20 @@
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
-        <v>453</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="D73" s="4">
-        <v>5</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>538</v>
+      <c r="A73" s="2">
+        <v>2125</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D73" s="2">
+        <v>5</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -7597,19 +7614,19 @@
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D74" s="4">
         <v>5</v>
       </c>
-      <c r="E74" s="5" t="s">
-        <v>537</v>
+      <c r="E74" s="4" t="s">
+        <v>538</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -7635,19 +7652,19 @@
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>311</v>
+        <v>9</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D75" s="4">
         <v>5</v>
       </c>
-      <c r="E75" s="4" t="s">
-        <v>536</v>
+      <c r="E75" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -7673,19 +7690,19 @@
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>27</v>
+        <v>311</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D76" s="4">
         <v>5</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -7711,19 +7728,19 @@
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D77" s="4">
         <v>5</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -7749,19 +7766,19 @@
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D78" s="4">
         <v>5</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -7787,19 +7804,19 @@
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>351</v>
+        <v>39</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D79" s="4">
         <v>5</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -7825,19 +7842,19 @@
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D80" s="4">
         <v>5</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -7863,19 +7880,19 @@
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>36</v>
+        <v>342</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D81" s="4">
         <v>5</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -7901,19 +7918,19 @@
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>325</v>
+        <v>36</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D82" s="4">
         <v>5</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -7939,19 +7956,19 @@
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>3</v>
+        <v>325</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D83" s="4">
         <v>5</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -7977,19 +7994,19 @@
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D84" s="4">
         <v>5</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -8015,19 +8032,19 @@
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D85" s="4">
         <v>5</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -8053,19 +8070,19 @@
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>394</v>
+        <v>144</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D86" s="4">
         <v>5</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -8091,19 +8108,19 @@
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
-        <v>598</v>
+        <v>576</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>97</v>
+        <v>394</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D87" s="4">
         <v>5</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -8129,19 +8146,19 @@
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D88" s="4">
         <v>5</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -8167,19 +8184,19 @@
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D89" s="4">
         <v>5</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -8205,19 +8222,19 @@
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D90" s="4">
         <v>5</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
@@ -8243,19 +8260,19 @@
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D91" s="4">
         <v>5</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
@@ -8281,19 +8298,19 @@
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D92" s="4">
         <v>5</v>
       </c>
-      <c r="E92" s="5" t="s">
-        <v>519</v>
+      <c r="E92" s="4" t="s">
+        <v>520</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
@@ -8319,19 +8336,19 @@
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D93" s="4">
         <v>5</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -8357,19 +8374,19 @@
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D94" s="4">
         <v>5</v>
       </c>
-      <c r="E94" s="4" t="s">
-        <v>517</v>
+      <c r="E94" s="5" t="s">
+        <v>518</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
@@ -8395,19 +8412,19 @@
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
-        <v>669</v>
+        <v>654</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D95" s="4">
         <v>5</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -8433,19 +8450,19 @@
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D96" s="4">
         <v>5</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
@@ -8471,19 +8488,19 @@
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>358</v>
+        <v>18</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D97" s="4">
         <v>5</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
@@ -8509,19 +8526,19 @@
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>198</v>
+        <v>358</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D98" s="4">
         <v>5</v>
       </c>
-      <c r="E98" s="5" t="s">
-        <v>513</v>
+      <c r="E98" s="4" t="s">
+        <v>514</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -8547,19 +8564,19 @@
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D99" s="4">
         <v>5</v>
       </c>
-      <c r="E99" s="4" t="s">
-        <v>512</v>
+      <c r="E99" s="5" t="s">
+        <v>513</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -8585,19 +8602,19 @@
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>183</v>
+        <v>18</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D100" s="4">
         <v>5</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -8623,19 +8640,19 @@
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>9</v>
+        <v>183</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D101" s="4">
         <v>5</v>
       </c>
-      <c r="E101" s="5" t="s">
-        <v>510</v>
+      <c r="E101" s="4" t="s">
+        <v>511</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -8661,19 +8678,19 @@
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D102" s="4">
         <v>5</v>
       </c>
-      <c r="E102" s="4" t="s">
-        <v>509</v>
+      <c r="E102" s="5" t="s">
+        <v>510</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
@@ -8699,19 +8716,19 @@
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>264</v>
+        <v>144</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D103" s="4">
         <v>5</v>
       </c>
-      <c r="E103" s="5" t="s">
-        <v>508</v>
+      <c r="E103" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -8737,19 +8754,19 @@
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
-        <v>767</v>
+        <v>739</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>147</v>
+        <v>264</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D104" s="4">
         <v>5</v>
       </c>
-      <c r="E104" s="4" t="s">
-        <v>507</v>
+      <c r="E104" s="5" t="s">
+        <v>508</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
@@ -8775,19 +8792,19 @@
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>342</v>
+        <v>147</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D105" s="4">
         <v>5</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
@@ -8813,19 +8830,19 @@
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D106" s="4">
         <v>5</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -8851,19 +8868,19 @@
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D107" s="4">
         <v>5</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
@@ -8889,19 +8906,19 @@
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
-        <v>811</v>
+        <v>792</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D108" s="4">
         <v>5</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -8927,19 +8944,19 @@
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
-        <v>826</v>
+        <v>811</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D109" s="4">
         <v>5</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
@@ -8965,19 +8982,19 @@
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
-        <v>841</v>
+        <v>826</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>442</v>
+        <v>150</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D110" s="4">
         <v>5</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
@@ -9003,19 +9020,19 @@
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
-        <v>862</v>
+        <v>841</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D111" s="4">
         <v>5</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
@@ -9041,19 +9058,19 @@
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D112" s="4">
         <v>5</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
@@ -9079,19 +9096,19 @@
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
-        <v>893</v>
+        <v>865</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>227</v>
+        <v>9</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D113" s="4">
         <v>5</v>
       </c>
-      <c r="E113" s="5" t="s">
-        <v>497</v>
+      <c r="E113" s="4" t="s">
+        <v>499</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -9117,19 +9134,19 @@
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
-        <v>2006</v>
+        <v>893</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D114" s="4">
         <v>5</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
@@ -9155,19 +9172,19 @@
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
-        <v>2051</v>
+        <v>2006</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>18</v>
+        <v>259</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D115" s="4">
         <v>5</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
@@ -9193,19 +9210,19 @@
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
-        <v>2074</v>
+        <v>2051</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>314</v>
+        <v>18</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D116" s="4">
         <v>5</v>
       </c>
-      <c r="E116" s="4" t="s">
-        <v>496</v>
+      <c r="E116" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
@@ -9231,19 +9248,19 @@
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
-        <v>876</v>
+        <v>2074</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="D117" s="4">
         <v>5</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
@@ -9269,19 +9286,19 @@
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
-        <v>2036</v>
+        <v>876</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D118" s="4">
         <v>5</v>
       </c>
-      <c r="E118" s="5" t="s">
-        <v>493</v>
+      <c r="E118" s="4" t="s">
+        <v>498</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
@@ -9307,19 +9324,19 @@
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
-        <v>2019</v>
+        <v>2036</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D119" s="4">
         <v>5</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
@@ -9345,19 +9362,19 @@
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
-        <v>2062</v>
+        <v>2019</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D120" s="4">
         <v>5</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
@@ -9382,20 +9399,20 @@
       <c r="Z120" s="2"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A121" s="2">
-        <v>2085</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="D121" s="2">
-        <v>5</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>541</v>
+      <c r="A121" s="4">
+        <v>2062</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="D121" s="4">
+        <v>5</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
@@ -9421,19 +9438,19 @@
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
-        <v>2094</v>
+        <v>2085</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>144</v>
+        <v>358</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D122" s="2">
         <v>5</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
@@ -9458,20 +9475,20 @@
       <c r="Z122" s="2"/>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A123" s="4">
-        <v>2105</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="D123" s="4">
-        <v>5</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>548</v>
+      <c r="A123" s="2">
+        <v>2094</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D123" s="2">
+        <v>5</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>542</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
@@ -9496,20 +9513,20 @@
       <c r="Z123" s="2"/>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A124" s="2">
-        <v>2120</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="D124" s="2">
-        <v>5</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>555</v>
+      <c r="A124" s="4">
+        <v>2105</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="D124" s="4">
+        <v>5</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>548</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
@@ -9534,11 +9551,21 @@
       <c r="Z124" s="2"/>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
+      <c r="A125" s="2">
+        <v>2120</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D125" s="2">
+        <v>5</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
@@ -34172,19 +34199,19 @@
     <hyperlink ref="E70" r:id="rId132" xr:uid="{E57313D2-106F-4635-8CD9-0ED6630AA20F}"/>
     <hyperlink ref="E71" r:id="rId133" xr:uid="{BD1B2F1E-48F9-4E4D-A41D-5D308065DBA6}"/>
     <hyperlink ref="E72" r:id="rId134" xr:uid="{4C560E5E-9B6A-4DD1-A22F-091C01C1C88E}"/>
-    <hyperlink ref="E114" r:id="rId135" xr:uid="{F73ACDC5-E716-45FB-8624-8016186266D5}"/>
-    <hyperlink ref="E119" r:id="rId136" xr:uid="{0B0B71F9-00E2-4325-8B98-0B5129AA73F4}"/>
-    <hyperlink ref="E118" r:id="rId137" xr:uid="{8E9A418C-640E-433B-A782-7079B6851892}"/>
-    <hyperlink ref="E120" r:id="rId138" xr:uid="{26F75B8A-A1FB-4AC4-A703-E1A06D66EECC}"/>
-    <hyperlink ref="E115" r:id="rId139" xr:uid="{3654D59C-62FA-4EC3-9E8B-7793B29FD18F}"/>
-    <hyperlink ref="E113" r:id="rId140" xr:uid="{79ACAE1B-6184-4B77-9D70-9287D5E5B5E1}"/>
-    <hyperlink ref="E103" r:id="rId141" xr:uid="{E963C6D7-4BDE-4B11-AD1A-CDD137028642}"/>
-    <hyperlink ref="E101" r:id="rId142" xr:uid="{886C16C8-5C36-4EF1-BA40-399368DB7897}"/>
-    <hyperlink ref="E98" r:id="rId143" xr:uid="{C0E2D530-B23D-48A2-935B-1E4411F69205}"/>
-    <hyperlink ref="E93" r:id="rId144" xr:uid="{92A2F32E-E51E-46FE-A2BC-3446D95EDEEB}"/>
-    <hyperlink ref="E92" r:id="rId145" xr:uid="{37D48DE8-0926-4E3D-998C-2D17FF188B7B}"/>
-    <hyperlink ref="E74" r:id="rId146" xr:uid="{455F0796-2CC1-4A70-8821-18995DE97289}"/>
-    <hyperlink ref="E124" r:id="rId147" xr:uid="{C530DE8B-22AD-461B-B209-C75282F85D50}"/>
+    <hyperlink ref="E115" r:id="rId135" xr:uid="{F73ACDC5-E716-45FB-8624-8016186266D5}"/>
+    <hyperlink ref="E120" r:id="rId136" xr:uid="{0B0B71F9-00E2-4325-8B98-0B5129AA73F4}"/>
+    <hyperlink ref="E119" r:id="rId137" xr:uid="{8E9A418C-640E-433B-A782-7079B6851892}"/>
+    <hyperlink ref="E121" r:id="rId138" xr:uid="{26F75B8A-A1FB-4AC4-A703-E1A06D66EECC}"/>
+    <hyperlink ref="E116" r:id="rId139" xr:uid="{3654D59C-62FA-4EC3-9E8B-7793B29FD18F}"/>
+    <hyperlink ref="E114" r:id="rId140" xr:uid="{79ACAE1B-6184-4B77-9D70-9287D5E5B5E1}"/>
+    <hyperlink ref="E104" r:id="rId141" xr:uid="{E963C6D7-4BDE-4B11-AD1A-CDD137028642}"/>
+    <hyperlink ref="E102" r:id="rId142" xr:uid="{886C16C8-5C36-4EF1-BA40-399368DB7897}"/>
+    <hyperlink ref="E99" r:id="rId143" xr:uid="{C0E2D530-B23D-48A2-935B-1E4411F69205}"/>
+    <hyperlink ref="E94" r:id="rId144" xr:uid="{92A2F32E-E51E-46FE-A2BC-3446D95EDEEB}"/>
+    <hyperlink ref="E93" r:id="rId145" xr:uid="{37D48DE8-0926-4E3D-998C-2D17FF188B7B}"/>
+    <hyperlink ref="E75" r:id="rId146" xr:uid="{455F0796-2CC1-4A70-8821-18995DE97289}"/>
+    <hyperlink ref="E125" r:id="rId147" xr:uid="{C530DE8B-22AD-461B-B209-C75282F85D50}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34195,10 +34222,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -36373,6 +36400,23 @@
       </c>
       <c r="E72" s="3" t="s">
         <v>324</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>2125</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D73" s="2">
+        <v>5</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -36521,10 +36565,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -38702,36 +38746,53 @@
       </c>
     </row>
     <row r="73" spans="1:5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+      <c r="A73" s="2">
+        <v>2125</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D73" s="2">
+        <v>5</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
         <v>2116</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D74" s="1">
         <v>6</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E74" s="7" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
         <v>2114</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B75" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C75" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D75" s="4">
         <v>6</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E75" s="4" t="s">
         <v>552</v>
       </c>
     </row>
@@ -39923,10 +39984,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280DD03D-C9DD-4EF5-8584-E8D4800D4081}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:E50"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -40779,6 +40840,23 @@
       </c>
       <c r="E50" t="s">
         <v>548</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>2120</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D51" s="1">
+        <v>5</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -40795,6 +40873,7 @@
     <hyperlink ref="E21" r:id="rId10" xr:uid="{EF843FCF-AB23-4342-82D3-72EC97431A5F}"/>
     <hyperlink ref="E20" r:id="rId11" xr:uid="{F53945D2-364A-4861-A136-D93EEC9649B8}"/>
     <hyperlink ref="E2" r:id="rId12" xr:uid="{DFD2A558-7041-4B18-80EB-F35C645DE8F3}"/>
+    <hyperlink ref="E51" r:id="rId13" xr:uid="{77EC6583-7891-4FE5-BAE4-FAC845B2C128}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SummonPool.xlsx
+++ b/SummonPool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noahr\Desktop\gacha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEF5AD2-B797-4722-B50C-EC3FF581DCB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D1E33F-1B24-419C-8FEE-FAE7644D6413}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="3555" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bf" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2295" uniqueCount="561">
   <si>
     <t>Naruto Uzumaki</t>
   </si>
@@ -1710,6 +1710,12 @@
   </si>
   <si>
     <t>Kage's Successor</t>
+  </si>
+  <si>
+    <t>From the Heart</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/naruto-shippuden-ultimate-ninja-blazing/images/7/70/Card-2128.png/revision/latest?cb=20200908092735</t>
   </si>
 </sst>
 </file>
@@ -5396,8 +5402,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125:E125"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="M104" sqref="M104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9589,11 +9595,21 @@
       <c r="Z125" s="2"/>
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
+      <c r="A126" s="4">
+        <v>2128</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="D126" s="4">
+        <v>5</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>560</v>
+      </c>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
@@ -34212,6 +34228,7 @@
     <hyperlink ref="E93" r:id="rId145" xr:uid="{37D48DE8-0926-4E3D-998C-2D17FF188B7B}"/>
     <hyperlink ref="E75" r:id="rId146" xr:uid="{455F0796-2CC1-4A70-8821-18995DE97289}"/>
     <hyperlink ref="E125" r:id="rId147" xr:uid="{C530DE8B-22AD-461B-B209-C75282F85D50}"/>
+    <hyperlink ref="E126" r:id="rId148" xr:uid="{70B52CA1-0F27-423D-97E7-9F798EC4D5E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34233,7 +34250,7 @@
     <col min="1" max="16384" width="14.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2">
         <v>44</v>
       </c>
@@ -34280,7 +34297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>46</v>
       </c>
@@ -34327,7 +34344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>48</v>
       </c>
@@ -34374,7 +34391,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>50</v>
       </c>
@@ -34421,7 +34438,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>139</v>
       </c>
@@ -34468,7 +34485,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>146</v>
       </c>
@@ -34515,7 +34532,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>150</v>
       </c>
@@ -34562,7 +34579,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>161</v>
       </c>
@@ -34609,7 +34626,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>167</v>
       </c>
@@ -34656,7 +34673,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>175</v>
       </c>
@@ -34703,7 +34720,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>200</v>
       </c>
@@ -34750,7 +34767,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>219</v>
       </c>
@@ -34797,7 +34814,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>221</v>
       </c>
@@ -34844,7 +34861,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>225</v>
       </c>
@@ -34891,7 +34908,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>235</v>
       </c>
@@ -34938,7 +34955,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>237</v>
       </c>
@@ -34970,7 +34987,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>242</v>
       </c>
@@ -35002,7 +35019,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>244</v>
       </c>
@@ -35034,7 +35051,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="153" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>251</v>
       </c>
@@ -35066,7 +35083,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="153" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>253</v>
       </c>
@@ -35098,7 +35115,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>255</v>
       </c>
@@ -35130,7 +35147,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>263</v>
       </c>
@@ -35162,7 +35179,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>265</v>
       </c>
@@ -35194,7 +35211,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>271</v>
       </c>
@@ -35226,7 +35243,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>289</v>
       </c>
@@ -35258,7 +35275,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>291</v>
       </c>
@@ -35290,7 +35307,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>300</v>
       </c>
@@ -35322,7 +35339,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>302</v>
       </c>
@@ -35354,7 +35371,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>313</v>
       </c>
@@ -35386,7 +35403,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>315</v>
       </c>
@@ -35418,7 +35435,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>321</v>
       </c>
@@ -35450,7 +35467,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>323</v>
       </c>
@@ -35482,7 +35499,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>335</v>
       </c>
@@ -35514,7 +35531,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>337</v>
       </c>
@@ -35546,7 +35563,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>343</v>
       </c>
@@ -35578,7 +35595,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>346</v>
       </c>
@@ -35610,7 +35627,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>348</v>
       </c>
@@ -35642,7 +35659,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>356</v>
       </c>
@@ -35674,7 +35691,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>358</v>
       </c>
@@ -35706,7 +35723,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>368</v>
       </c>
@@ -35738,7 +35755,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>370</v>
       </c>
@@ -35770,7 +35787,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>383</v>
       </c>
@@ -35802,7 +35819,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>385</v>
       </c>
@@ -35834,7 +35851,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>387</v>
       </c>
@@ -35866,7 +35883,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>389</v>
       </c>
@@ -35898,7 +35915,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>398</v>
       </c>
@@ -35930,7 +35947,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>400</v>
       </c>
@@ -35962,7 +35979,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>407</v>
       </c>
@@ -35994,7 +36011,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>409</v>
       </c>
@@ -36011,7 +36028,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>432</v>
       </c>
@@ -36028,7 +36045,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>436</v>
       </c>
@@ -36045,7 +36062,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>438</v>
       </c>
@@ -36062,7 +36079,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>444</v>
       </c>
@@ -36079,7 +36096,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>446</v>
       </c>
@@ -36096,7 +36113,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>462</v>
       </c>
@@ -36113,7 +36130,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>564</v>
       </c>
@@ -36130,7 +36147,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>606</v>
       </c>
@@ -36147,7 +36164,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>608</v>
       </c>
@@ -36164,7 +36181,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>621</v>
       </c>
@@ -36181,7 +36198,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>623</v>
       </c>
@@ -36198,7 +36215,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>648</v>
       </c>
@@ -36215,7 +36232,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>710</v>
       </c>
@@ -36232,7 +36249,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>729</v>
       </c>
@@ -36249,7 +36266,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>731</v>
       </c>
@@ -36266,7 +36283,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>775</v>
       </c>
@@ -36283,7 +36300,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>784</v>
       </c>
@@ -36300,7 +36317,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>807</v>
       </c>
@@ -36317,7 +36334,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>809</v>
       </c>
@@ -36334,7 +36351,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>823</v>
       </c>
@@ -36351,7 +36368,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>839</v>
       </c>
@@ -36368,7 +36385,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>873</v>
       </c>
@@ -36385,7 +36402,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>2048</v>
       </c>
@@ -39984,10 +40001,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280DD03D-C9DD-4EF5-8584-E8D4800D4081}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView topLeftCell="A36" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -40857,6 +40874,23 @@
       </c>
       <c r="E51" s="7" t="s">
         <v>555</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>2128</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="D52" s="4">
+        <v>5</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -40874,6 +40908,7 @@
     <hyperlink ref="E20" r:id="rId11" xr:uid="{F53945D2-364A-4861-A136-D93EEC9649B8}"/>
     <hyperlink ref="E2" r:id="rId12" xr:uid="{DFD2A558-7041-4B18-80EB-F35C645DE8F3}"/>
     <hyperlink ref="E51" r:id="rId13" xr:uid="{77EC6583-7891-4FE5-BAE4-FAC845B2C128}"/>
+    <hyperlink ref="E52" r:id="rId14" xr:uid="{9BDE92B0-4D64-44F0-9D71-1BF0A6C3A768}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SummonPool.xlsx
+++ b/SummonPool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noahr\Desktop\gacha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D1E33F-1B24-419C-8FEE-FAE7644D6413}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7026829C-808A-401E-897A-5F9280EED087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3555" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5565" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bf" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2295" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2301" uniqueCount="563">
   <si>
     <t>Naruto Uzumaki</t>
   </si>
@@ -1716,6 +1716,12 @@
   </si>
   <si>
     <t>https://static.wikia.nocookie.net/naruto-shippuden-ultimate-ninja-blazing/images/7/70/Card-2128.png/revision/latest?cb=20200908092735</t>
+  </si>
+  <si>
+    <t>Rain of Extinction</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/naruto-shippuden-ultimate-ninja-blazing/images/6/67/Card-2131.png/revision/latest?cb=20200929184237</t>
   </si>
 </sst>
 </file>
@@ -2005,8 +2011,8 @@
   </sheetPr>
   <dimension ref="A1:Q135"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5170,10 +5176,21 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
+      <c r="A131" s="2">
+        <v>2131</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D131" s="2">
+        <v>5</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B132" s="2"/>
@@ -5402,7 +5419,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+    <sheetView topLeftCell="A107" workbookViewId="0">
       <selection activeCell="M104" sqref="M104"/>
     </sheetView>
   </sheetViews>
@@ -38960,10 +38977,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+      <selection activeCell="A58" sqref="A58:E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -39935,6 +39952,23 @@
       </c>
       <c r="E57" s="2" t="s">
         <v>550</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>2131</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D58" s="2">
+        <v>5</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>562</v>
       </c>
     </row>
   </sheetData>

--- a/SummonPool.xlsx
+++ b/SummonPool.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noahr\Desktop\gacha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah Rudin\Desktop\gacha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7026829C-808A-401E-897A-5F9280EED087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586BF98D-1305-441A-A3F1-E398A2159B8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5565" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3015" windowWidth="28800" windowHeight="10905" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bf" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2301" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="565">
   <si>
     <t>Naruto Uzumaki</t>
   </si>
@@ -1722,6 +1722,12 @@
   </si>
   <si>
     <t>https://static.wikia.nocookie.net/naruto-shippuden-ultimate-ninja-blazing/images/6/67/Card-2131.png/revision/latest?cb=20200929184237</t>
+  </si>
+  <si>
+    <t>Precious Feelings</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/naruto-shippuden-ultimate-ninja-blazing/images/e/e3/Card-2134.png/revision/latest?cb=20201013084942</t>
   </si>
 </sst>
 </file>
@@ -2011,7 +2017,7 @@
   </sheetPr>
   <dimension ref="A1:Q135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+    <sheetView topLeftCell="A123" workbookViewId="0">
       <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
@@ -5420,7 +5426,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="M104" sqref="M104"/>
+      <selection activeCell="A127" sqref="A127:E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9650,11 +9656,21 @@
       <c r="Z126" s="2"/>
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
+      <c r="A127" s="2">
+        <v>2134</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D127" s="2">
+        <v>5</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>564</v>
+      </c>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
@@ -40035,10 +40051,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280DD03D-C9DD-4EF5-8584-E8D4800D4081}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:E52"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -40925,6 +40941,23 @@
       </c>
       <c r="E52" s="7" t="s">
         <v>560</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>2134</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D53" s="1">
+        <v>5</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>564</v>
       </c>
     </row>
   </sheetData>

--- a/SummonPool.xlsx
+++ b/SummonPool.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah Rudin\Desktop\gacha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noahr\Desktop\gacha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586BF98D-1305-441A-A3F1-E398A2159B8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A923AA-786F-4911-B3E2-F85707AEE041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3015" windowWidth="28800" windowHeight="10905" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="3660" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bf" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="567">
   <si>
     <t>Naruto Uzumaki</t>
   </si>
@@ -1728,6 +1728,12 @@
   </si>
   <si>
     <t>https://static.wikia.nocookie.net/naruto-shippuden-ultimate-ninja-blazing/images/e/e3/Card-2134.png/revision/latest?cb=20201013084942</t>
+  </si>
+  <si>
+    <t>Roaring Tears</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/naruto-shippuden-ultimate-ninja-blazing/images/f/ff/Card-2137.png/revision/latest?cb=20201027101151</t>
   </si>
 </sst>
 </file>
@@ -2017,8 +2023,8 @@
   </sheetPr>
   <dimension ref="A1:Q135"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="I155" sqref="I155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5199,10 +5205,21 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
+      <c r="A132">
+        <v>2137</v>
+      </c>
+      <c r="B132" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" t="s">
+        <v>565</v>
+      </c>
+      <c r="D132">
+        <v>5</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B133" s="2"/>
@@ -38993,10 +39010,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:E58"/>
+      <selection activeCell="A59" sqref="A59:E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -39985,6 +40002,23 @@
       </c>
       <c r="E58" s="4" t="s">
         <v>562</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2137</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>565</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59" t="s">
+        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -40053,8 +40087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280DD03D-C9DD-4EF5-8584-E8D4800D4081}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView topLeftCell="A47" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/SummonPool.xlsx
+++ b/SummonPool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noahr\Desktop\gacha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A923AA-786F-4911-B3E2-F85707AEE041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A40F56-F310-4B48-B944-56D2C3DEA246}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="3660" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4755" yWindow="1110" windowWidth="30240" windowHeight="18150" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bf" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="569">
   <si>
     <t>Naruto Uzumaki</t>
   </si>
@@ -1734,6 +1734,12 @@
   </si>
   <si>
     <t>https://static.wikia.nocookie.net/naruto-shippuden-ultimate-ninja-blazing/images/f/ff/Card-2137.png/revision/latest?cb=20201027101151</t>
+  </si>
+  <si>
+    <t>Desired Future</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/naruto-shippuden-ultimate-ninja-blazing/images/3/32/Card-2139.png/revision/latest?cb=20201110084052</t>
   </si>
 </sst>
 </file>
@@ -2023,8 +2029,8 @@
   </sheetPr>
   <dimension ref="A1:Q135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="I155" sqref="I155"/>
+    <sheetView topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133:E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5220,12 +5226,6 @@
       <c r="E132" s="4" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B134" s="2"/>
@@ -5443,7 +5443,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127:E127"/>
+      <selection activeCell="A128" sqref="A128:E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9711,11 +9711,21 @@
       <c r="Z127" s="2"/>
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
+      <c r="A128" s="4">
+        <v>2139</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="D128" s="2">
+        <v>5</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>568</v>
+      </c>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
@@ -40085,10 +40095,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280DD03D-C9DD-4EF5-8584-E8D4800D4081}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:E54"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -40992,6 +41002,23 @@
       </c>
       <c r="E53" s="1" t="s">
         <v>564</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>2139</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>567</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>568</v>
       </c>
     </row>
   </sheetData>
